--- a/computed_files/1_6_nitrogen/mie_results_vle_sle_sve_fluid.xlsx
+++ b/computed_files/1_6_nitrogen/mie_results_vle_sle_sve_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8687226004463255</v>
       </c>
       <c r="D2">
-        <v>133.224428504119</v>
+        <v>133.2244285041189</v>
       </c>
       <c r="E2">
-        <v>4391290.635736329</v>
+        <v>4391290.635736331</v>
       </c>
       <c r="F2">
-        <v>11622.30440481459</v>
+        <v>11622.30440481455</v>
       </c>
       <c r="G2">
         <v>3.622458975938409</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>40.65776467669557</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.1271886823236361</v>
       </c>
       <c r="M2">
+        <v>0.1271885969346688</v>
+      </c>
+      <c r="N2">
         <v>1270.737292668472</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>8.538896730907782E-08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>41.5927680260202</v>
       </c>
@@ -626,10 +644,16 @@
         <v>0.1263532423724689</v>
       </c>
       <c r="M3">
+        <v>0.1263531553248871</v>
+      </c>
+      <c r="N3">
         <v>1211.657783594186</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>8.704758180099245E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>42.52777137534483</v>
       </c>
@@ -667,10 +691,16 @@
         <v>0.1256536520818788</v>
       </c>
       <c r="M4">
+        <v>0.1256535632624588</v>
+      </c>
+      <c r="N4">
         <v>1168.852204427338</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>8.881941994983965E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>43.46277472466947</v>
       </c>
@@ -708,92 +738,110 @@
         <v>0.1250810434316658</v>
       </c>
       <c r="M5">
+        <v>0.1250809527182883</v>
+      </c>
+      <c r="N5">
         <v>1136.615265861298</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>9.07133775500006E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>44.39777807399409</v>
       </c>
       <c r="B6">
-        <v>82.23852760245644</v>
+        <v>82.2385276024565</v>
       </c>
       <c r="C6">
-        <v>0.2228114044853055</v>
+        <v>0.2228114044853057</v>
       </c>
       <c r="D6">
         <v>35285.71027341372</v>
       </c>
       <c r="E6">
-        <v>7131.521057025872</v>
+        <v>7131.521057025878</v>
       </c>
       <c r="F6">
-        <v>6762.428601916321</v>
+        <v>6762.428601916326</v>
       </c>
       <c r="G6">
-        <v>54.70638214926564</v>
+        <v>54.70638214926569</v>
       </c>
       <c r="H6">
-        <v>129.1412305898728</v>
+        <v>129.1412305898729</v>
       </c>
       <c r="I6">
-        <v>1.716007778668568E-09</v>
+        <v>1.716007778668569E-09</v>
       </c>
       <c r="J6">
         <v>5.999379078106453E-10</v>
       </c>
       <c r="K6">
-        <v>0.0008105341850169308</v>
+        <v>0.0008105341850169305</v>
       </c>
       <c r="L6">
         <v>0.1246276680538736</v>
       </c>
       <c r="M6">
-        <v>1111.617694002203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.1246275753149161</v>
+      </c>
+      <c r="N6">
+        <v>1111.617694002202</v>
+      </c>
+      <c r="O6">
+        <v>9.273895745904048E-08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>45.33278142331872</v>
+        <v>45.33278142331871</v>
       </c>
       <c r="B7">
-        <v>122.1035308403896</v>
+        <v>122.1035308403863</v>
       </c>
       <c r="C7">
-        <v>0.3240129022310512</v>
+        <v>0.3240129022310425</v>
       </c>
       <c r="D7">
-        <v>34944.79838495403</v>
+        <v>34944.79838495404</v>
       </c>
       <c r="E7">
-        <v>7014.454275261879</v>
+        <v>7014.454275261885</v>
       </c>
       <c r="F7">
-        <v>6637.610026655508</v>
+        <v>6637.610026655515</v>
       </c>
       <c r="G7">
-        <v>52.93537051908825</v>
+        <v>52.9353705190882</v>
       </c>
       <c r="H7">
         <v>121.1418697199808</v>
       </c>
       <c r="I7">
-        <v>1.746483079074138E-09</v>
+        <v>1.746483079074136E-09</v>
       </c>
       <c r="J7">
-        <v>6.199482413405298E-10</v>
+        <v>6.199482413405286E-10</v>
       </c>
       <c r="K7">
-        <v>0.0008029457796077557</v>
+        <v>0.0008029457796077569</v>
       </c>
       <c r="L7">
         <v>0.1242863022112035</v>
       </c>
       <c r="M7">
-        <v>1091.771187201924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.12428620730491</v>
+      </c>
+      <c r="N7">
+        <v>1091.771187201925</v>
+      </c>
+      <c r="O7">
+        <v>9.49062935266301E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>46.26778477264335</v>
       </c>
@@ -801,66 +849,72 @@
         <v>177.3427921434207</v>
       </c>
       <c r="C8">
-        <v>0.4611172926460993</v>
+        <v>0.4611172926460994</v>
       </c>
       <c r="D8">
-        <v>34621.90790066261</v>
+        <v>34621.90790066262</v>
       </c>
       <c r="E8">
-        <v>6904.829373673712</v>
+        <v>6904.829373673714</v>
       </c>
       <c r="F8">
-        <v>6520.240825295325</v>
+        <v>6520.240825295326</v>
       </c>
       <c r="G8">
-        <v>50.57447055968306</v>
+        <v>50.57447055968311</v>
       </c>
       <c r="H8">
-        <v>113.2100466715279</v>
+        <v>113.210046671528</v>
       </c>
       <c r="I8">
         <v>1.776910545620628E-09</v>
       </c>
       <c r="J8">
-        <v>6.410252513406005E-10</v>
+        <v>6.410252513405999E-10</v>
       </c>
       <c r="K8">
-        <v>0.0007912229775612087</v>
+        <v>0.0007912229775612091</v>
       </c>
       <c r="L8">
         <v>0.1240496945338661</v>
       </c>
       <c r="M8">
-        <v>1075.68944596931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1240495973076967</v>
+      </c>
+      <c r="N8">
+        <v>1075.689445969309</v>
+      </c>
+      <c r="O8">
+        <v>9.722616946761274E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>47.20278812196798</v>
       </c>
       <c r="B9">
-        <v>252.4176615448188</v>
+        <v>252.4176615448148</v>
       </c>
       <c r="C9">
-        <v>0.6433795098032323</v>
+        <v>0.6433795098032222</v>
       </c>
       <c r="D9">
-        <v>34315.46988903669</v>
+        <v>34315.4698890367</v>
       </c>
       <c r="E9">
-        <v>6802.510103154743</v>
+        <v>6802.510103154736</v>
       </c>
       <c r="F9">
-        <v>6410.186559793563</v>
+        <v>6410.18655979356</v>
       </c>
       <c r="G9">
-        <v>47.83889613385924</v>
+        <v>47.83889613385929</v>
       </c>
       <c r="H9">
-        <v>105.4861536541354</v>
+        <v>105.4861536541355</v>
       </c>
       <c r="I9">
-        <v>1.807415414753431E-09</v>
+        <v>1.807415414753429E-09</v>
       </c>
       <c r="J9">
         <v>6.632723020083161E-10</v>
@@ -872,33 +926,39 @@
         <v>0.1239100965694431</v>
       </c>
       <c r="M9">
-        <v>1062.408465555018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.1239099968594117</v>
+      </c>
+      <c r="N9">
+        <v>1062.408465555019</v>
+      </c>
+      <c r="O9">
+        <v>9.971003143200274E-08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>48.13779147129262</v>
+        <v>48.13779147129261</v>
       </c>
       <c r="B10">
-        <v>352.6644805658129</v>
+        <v>352.6644805658138</v>
       </c>
       <c r="C10">
-        <v>0.8815344278185725</v>
+        <v>0.8815344278185751</v>
       </c>
       <c r="D10">
         <v>34024.06163534021</v>
       </c>
       <c r="E10">
-        <v>6707.246876488257</v>
+        <v>6707.246876488261</v>
       </c>
       <c r="F10">
-        <v>6307.199717536654</v>
+        <v>6307.19971753666</v>
       </c>
       <c r="G10">
-        <v>44.89616111039501</v>
+        <v>44.89616111039496</v>
       </c>
       <c r="H10">
-        <v>98.07215014632352</v>
+        <v>98.07215014632357</v>
       </c>
       <c r="I10">
         <v>1.838120240990418E-09</v>
@@ -907,18 +967,24 @@
         <v>6.867987172406806E-10</v>
       </c>
       <c r="K10">
-        <v>0.0007554289347753647</v>
+        <v>0.0007554289347753657</v>
       </c>
       <c r="L10">
-        <v>0.1238589165107239</v>
+        <v>0.123858916510724</v>
       </c>
       <c r="M10">
-        <v>1051.231166623827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.1238588141407311</v>
+      </c>
+      <c r="N10">
+        <v>1051.231166623828</v>
+      </c>
+      <c r="O10">
+        <v>1.023699928796626E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>49.07279482061725</v>
+        <v>49.07279482061723</v>
       </c>
       <c r="B11">
         <v>484.380441205778</v>
@@ -930,36 +996,42 @@
         <v>33746.39108999269</v>
       </c>
       <c r="E11">
-        <v>6618.709495192056</v>
+        <v>6618.709495192057</v>
       </c>
       <c r="F11">
-        <v>6210.952447827012</v>
+        <v>6210.952447827015</v>
       </c>
       <c r="G11">
-        <v>41.87399151431062</v>
+        <v>41.87399151431073</v>
       </c>
       <c r="H11">
-        <v>91.03826688530395</v>
+        <v>91.0382668853041</v>
       </c>
       <c r="I11">
         <v>1.869144560937202E-09</v>
       </c>
       <c r="J11">
-        <v>7.117198726373435E-10</v>
+        <v>7.117198726373422E-10</v>
       </c>
       <c r="K11">
-        <v>0.0007316579804508077</v>
+        <v>0.000731657980450808</v>
       </c>
       <c r="L11">
-        <v>0.1238865286544921</v>
+        <v>0.1238865286544922</v>
       </c>
       <c r="M11">
+        <v>0.123886423435662</v>
+      </c>
+      <c r="N11">
         <v>1041.63641334755</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>1.052188301635955E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>50.00779816994187</v>
+        <v>50.00779816994186</v>
       </c>
       <c r="B12">
         <v>654.9067624632951</v>
@@ -971,186 +1043,210 @@
         <v>33481.28315194559</v>
       </c>
       <c r="E12">
-        <v>6536.513874872025</v>
+        <v>6536.513874872026</v>
       </c>
       <c r="F12">
-        <v>6121.063293543501</v>
+        <v>6121.063293543502</v>
       </c>
       <c r="G12">
-        <v>38.8674729039703</v>
+        <v>38.86747290397039</v>
       </c>
       <c r="H12">
-        <v>84.42910861096948</v>
+        <v>84.42910861096958</v>
       </c>
       <c r="I12">
-        <v>1.900604749273616E-09</v>
+        <v>1.900604749273617E-09</v>
       </c>
       <c r="J12">
         <v>7.38157216476188E-10</v>
       </c>
       <c r="K12">
-        <v>0.0007043905920979642</v>
+        <v>0.0007043905920979638</v>
       </c>
       <c r="L12">
         <v>0.1239822553847746</v>
       </c>
       <c r="M12">
+        <v>0.1239821471148075</v>
+      </c>
+      <c r="N12">
         <v>1033.223512999933</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>1.08269967137189E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>50.9428015192665</v>
       </c>
       <c r="B13">
-        <v>872.7082774949506</v>
+        <v>872.7082774949564</v>
       </c>
       <c r="C13">
-        <v>2.062403350384413</v>
+        <v>2.062403350384427</v>
       </c>
       <c r="D13">
         <v>33227.66754548276</v>
       </c>
       <c r="E13">
-        <v>6460.243405861504</v>
+        <v>6460.243405861507</v>
       </c>
       <c r="F13">
-        <v>6037.118555254699</v>
+        <v>6037.118555254703</v>
       </c>
       <c r="G13">
-        <v>35.94531898239518</v>
+        <v>35.94531898239519</v>
       </c>
       <c r="H13">
-        <v>78.26901892994745</v>
+        <v>78.26901892994752</v>
       </c>
       <c r="I13">
-        <v>1.932614039976879E-09</v>
+        <v>1.932614039976878E-09</v>
       </c>
       <c r="J13">
         <v>7.662382039238548E-10</v>
       </c>
       <c r="K13">
-        <v>0.0006741203159697453</v>
+        <v>0.0006741203159697457</v>
       </c>
       <c r="L13">
         <v>0.1241345178004764</v>
       </c>
       <c r="M13">
+        <v>0.1241344062630294</v>
+      </c>
+      <c r="N13">
         <v>1025.677294446714</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>1.115374469804983E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>51.87780486859113</v>
       </c>
       <c r="B14">
-        <v>1147.44858905407</v>
+        <v>1147.448589054074</v>
       </c>
       <c r="C14">
-        <v>2.6634589030102</v>
+        <v>2.663458903010209</v>
       </c>
       <c r="D14">
         <v>32984.56808391066</v>
       </c>
       <c r="E14">
-        <v>6389.465664169023</v>
+        <v>6389.465664169027</v>
       </c>
       <c r="F14">
-        <v>5958.689002708691</v>
+        <v>5958.689002708693</v>
       </c>
       <c r="G14">
-        <v>33.15524426975787</v>
+        <v>33.15524426975788</v>
       </c>
       <c r="H14">
-        <v>72.5666706311936</v>
+        <v>72.56667063119362</v>
       </c>
       <c r="I14">
-        <v>1.965282687270922E-09</v>
+        <v>1.965282687270925E-09</v>
       </c>
       <c r="J14">
-        <v>7.960961282559009E-10</v>
+        <v>7.960961282559003E-10</v>
       </c>
       <c r="K14">
         <v>0.0006414754045845883</v>
       </c>
       <c r="L14">
-        <v>0.1243311298015139</v>
+        <v>0.1243311298015138</v>
       </c>
       <c r="M14">
+        <v>0.1243310147656244</v>
+      </c>
+      <c r="N14">
         <v>1018.745627296491</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>1.150358894203839E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>52.81280821791577</v>
+        <v>52.81280821791575</v>
       </c>
       <c r="B15">
-        <v>1490.06001921905</v>
+        <v>1490.060019219031</v>
       </c>
       <c r="C15">
-        <v>3.398487160892627</v>
+        <v>3.398487160892584</v>
       </c>
       <c r="D15">
         <v>32751.09314401385</v>
       </c>
       <c r="E15">
-        <v>6323.745190051315</v>
+        <v>6323.745190051312</v>
       </c>
       <c r="F15">
-        <v>5885.342651083273</v>
+        <v>5885.342651083268</v>
       </c>
       <c r="G15">
-        <v>30.52848388387845</v>
+        <v>30.5284838838785</v>
       </c>
       <c r="H15">
-        <v>67.31890773557065</v>
+        <v>67.31890773557075</v>
       </c>
       <c r="I15">
-        <v>1.998718242349821E-09</v>
+        <v>1.998718242349824E-09</v>
       </c>
       <c r="J15">
-        <v>8.278698328181053E-10</v>
+        <v>8.278698328181064E-10</v>
       </c>
       <c r="K15">
-        <v>0.0006071901933482116</v>
+        <v>0.0006071901933482114</v>
       </c>
       <c r="L15">
         <v>0.1245596930597463</v>
       </c>
       <c r="M15">
-        <v>1012.22470100887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.1245595742793147</v>
+      </c>
+      <c r="N15">
+        <v>1012.224701008869</v>
+      </c>
+      <c r="O15">
+        <v>1.187804315651383E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>53.74781156724038</v>
       </c>
       <c r="B16">
-        <v>1912.807655312388</v>
+        <v>1912.807655312391</v>
       </c>
       <c r="C16">
-        <v>4.288253160902072</v>
+        <v>4.288253160902079</v>
       </c>
       <c r="D16">
-        <v>32526.42720027759</v>
+        <v>32526.42720027758</v>
       </c>
       <c r="E16">
-        <v>6262.653008219029</v>
+        <v>6262.653008219031</v>
       </c>
       <c r="F16">
-        <v>5816.654276139053</v>
+        <v>5816.654276139052</v>
       </c>
       <c r="G16">
-        <v>28.0835370310057</v>
+        <v>28.08353703100567</v>
       </c>
       <c r="H16">
         <v>62.51390146894501</v>
       </c>
       <c r="I16">
-        <v>2.033025924258442E-09</v>
+        <v>2.033025924258445E-09</v>
       </c>
       <c r="J16">
-        <v>8.617032881472037E-10</v>
+        <v>8.617032881472038E-10</v>
       </c>
       <c r="K16">
         <v>0.0005720585699649198</v>
@@ -1159,18 +1255,24 @@
         <v>0.1248080399710842</v>
       </c>
       <c r="M16">
+        <v>0.1248079171844335</v>
+      </c>
+      <c r="N16">
         <v>1005.949237820918</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>1.227866507215602E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>54.68281491656501</v>
       </c>
       <c r="B17">
-        <v>2429.346880306199</v>
+        <v>2429.346880306203</v>
       </c>
       <c r="C17">
-        <v>5.355273133082679</v>
+        <v>5.355273133082687</v>
       </c>
       <c r="D17">
         <v>32309.823288881</v>
@@ -1179,39 +1281,45 @@
         <v>6205.773495997046</v>
       </c>
       <c r="F17">
-        <v>5752.212274796112</v>
+        <v>5752.212274796113</v>
       </c>
       <c r="G17">
-        <v>25.8292259969322</v>
+        <v>25.82922599693219</v>
       </c>
       <c r="H17">
-        <v>58.13369955854153</v>
+        <v>58.13369955854151</v>
       </c>
       <c r="I17">
-        <v>2.068309066038664E-09</v>
+        <v>2.068309066038662E-09</v>
       </c>
       <c r="J17">
-        <v>8.977450202431305E-10</v>
+        <v>8.977450202431304E-10</v>
       </c>
       <c r="K17">
-        <v>0.0005368755585508135</v>
+        <v>0.0005368755585508141</v>
       </c>
       <c r="L17">
         <v>0.125064669515128</v>
       </c>
       <c r="M17">
-        <v>999.7858542910006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1250645424446602</v>
+      </c>
+      <c r="N17">
+        <v>999.7858542910011</v>
+      </c>
+      <c r="O17">
+        <v>1.270704678383724E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>55.61781826588965</v>
       </c>
       <c r="B18">
-        <v>3054.773873479332</v>
+        <v>3054.77387347935</v>
       </c>
       <c r="C18">
-        <v>6.623808435939126</v>
+        <v>6.623808435939166</v>
       </c>
       <c r="D18">
         <v>32100.59628910737</v>
@@ -1241,18 +1349,24 @@
         <v>0.1253191261589655</v>
       </c>
       <c r="M18">
+        <v>0.1253189945109348</v>
+      </c>
+      <c r="N18">
         <v>993.628400099758</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>1.316480306130659E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>56.55282161521428</v>
       </c>
       <c r="B19">
-        <v>3805.668674291667</v>
+        <v>3805.668674291666</v>
       </c>
       <c r="C19">
-        <v>8.119850548874942</v>
+        <v>8.11985054887494</v>
       </c>
       <c r="D19">
         <v>31898.11692471902</v>
@@ -1282,18 +1396,24 @@
         <v>0.1255622826371975</v>
       </c>
       <c r="M19">
+        <v>0.1255621461016216</v>
+      </c>
+      <c r="N19">
         <v>987.394487098123</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>1.365355758612379E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>57.48782496453891</v>
       </c>
       <c r="B20">
-        <v>4700.130516646877</v>
+        <v>4700.130516646876</v>
       </c>
       <c r="C20">
-        <v>9.871098168316054</v>
+        <v>9.871098168316053</v>
       </c>
       <c r="D20">
         <v>31701.8064004956</v>
@@ -1323,18 +1443,24 @@
         <v>0.1257865014282235</v>
       </c>
       <c r="M20">
+        <v>0.125786359678952</v>
+      </c>
+      <c r="N20">
         <v>981.0226798705315</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>1.417492714384671E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>58.42282831386354</v>
       </c>
       <c r="B21">
-        <v>5757.805258387845</v>
+        <v>5757.805258387792</v>
       </c>
       <c r="C21">
-        <v>11.90692753626357</v>
+        <v>11.90692753626345</v>
       </c>
       <c r="D21">
         <v>31511.13159993321</v>
@@ -1364,18 +1490,24 @@
         <v>0.1259856650185388</v>
       </c>
       <c r="M21">
+        <v>0.1259855177134999</v>
+      </c>
+      <c r="N21">
         <v>974.4700050538837</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>1.47305038850165E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>59.35783166318816</v>
       </c>
       <c r="B22">
-        <v>6999.90484819023</v>
+        <v>6999.904848190214</v>
       </c>
       <c r="C22">
-        <v>14.25835719042488</v>
+        <v>14.25835719042485</v>
       </c>
       <c r="D22">
         <v>31325.60077936334</v>
@@ -1405,106 +1537,124 @@
         <v>0.1261550798807362</v>
       </c>
       <c r="M22">
+        <v>0.1261549266623776</v>
+      </c>
+      <c r="N22">
         <v>967.7095769452408</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>1.532183586341967E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>60.2928350125128</v>
+        <v>60.29283501251279</v>
       </c>
       <c r="B23">
-        <v>8449.218885281629</v>
+        <v>8449.218885281531</v>
       </c>
       <c r="C23">
-        <v>16.9580083618333</v>
+        <v>16.95800836183311</v>
       </c>
       <c r="D23">
-        <v>31144.7597017303</v>
+        <v>31144.75970173029</v>
       </c>
       <c r="E23">
-        <v>5932.256481281354</v>
+        <v>5932.256481281355</v>
       </c>
       <c r="F23">
-        <v>5434.2841846282</v>
+        <v>5434.284184628199</v>
       </c>
       <c r="G23">
-        <v>16.10866779489085</v>
+        <v>16.10866779489087</v>
       </c>
       <c r="H23">
-        <v>39.42345927235983</v>
+        <v>39.42345927235988</v>
       </c>
       <c r="I23">
-        <v>2.306177501651092E-09</v>
+        <v>2.306177501651094E-09</v>
       </c>
       <c r="J23">
         <v>1.169040938836009E-09</v>
       </c>
       <c r="K23">
-        <v>0.0003568191748216442</v>
+        <v>0.0003568191748216441</v>
       </c>
       <c r="L23">
         <v>0.1262912719998684</v>
       </c>
       <c r="M23">
-        <v>960.7282435082591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.1262911124958067</v>
+      </c>
+      <c r="N23">
+        <v>960.7282435082587</v>
+      </c>
+      <c r="O23">
+        <v>1.595040616438702E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>61.22783836183743</v>
+        <v>61.22783836183741</v>
       </c>
       <c r="B24">
-        <v>10130.11843335487</v>
+        <v>10130.11843335477</v>
       </c>
       <c r="C24">
-        <v>20.04006225863997</v>
+        <v>20.04006225863977</v>
       </c>
       <c r="D24">
         <v>30968.18816016962</v>
       </c>
       <c r="E24">
-        <v>5894.995827486705</v>
+        <v>5894.995827486706</v>
       </c>
       <c r="F24">
         <v>5389.829579801823</v>
       </c>
       <c r="G24">
-        <v>15.0322675807353</v>
+        <v>15.03226758073534</v>
       </c>
       <c r="H24">
-        <v>37.3293061705356</v>
+        <v>37.32930617053561</v>
       </c>
       <c r="I24">
         <v>2.351139635105179E-09</v>
       </c>
       <c r="J24">
-        <v>1.224886223227083E-09</v>
+        <v>1.22488622322708E-09</v>
       </c>
       <c r="K24">
-        <v>0.0003344132169616848</v>
+        <v>0.0003344132169616851</v>
       </c>
       <c r="L24">
         <v>0.1263917015378276</v>
       </c>
       <c r="M24">
-        <v>953.5242345821313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1263915353617172</v>
+      </c>
+      <c r="N24">
+        <v>953.5242345821308</v>
+      </c>
+      <c r="O24">
+        <v>1.661761104100616E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>62.16284171116206</v>
+        <v>62.16284171116205</v>
       </c>
       <c r="B25">
-        <v>12068.55234599628</v>
+        <v>12068.55234599629</v>
       </c>
       <c r="C25">
-        <v>23.54021546456927</v>
+        <v>23.54021546456929</v>
       </c>
       <c r="D25">
-        <v>30795.49684752307</v>
+        <v>30795.49684752308</v>
       </c>
       <c r="E25">
-        <v>5859.403201360987</v>
+        <v>5859.403201360985</v>
       </c>
       <c r="F25">
         <v>5347.11701992008</v>
@@ -1513,238 +1663,274 @@
         <v>14.07930051091519</v>
       </c>
       <c r="H25">
-        <v>35.46378780864539</v>
+        <v>35.46378780864538</v>
       </c>
       <c r="I25">
-        <v>2.397904219660166E-09</v>
+        <v>2.397904219660162E-09</v>
       </c>
       <c r="J25">
-        <v>1.284169665082997E-09</v>
+        <v>1.284169665082996E-09</v>
       </c>
       <c r="K25">
-        <v>0.0003141522173459551</v>
+        <v>0.0003141522173459561</v>
       </c>
       <c r="L25">
         <v>0.1264544300134207</v>
       </c>
       <c r="M25">
-        <v>946.1048452825493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.126454256766045</v>
+      </c>
+      <c r="N25">
+        <v>946.1048452825495</v>
+      </c>
+      <c r="O25">
+        <v>1.732473757922095E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>63.09784506048669</v>
+        <v>63.09784506048668</v>
       </c>
       <c r="B26">
-        <v>14292.03644497053</v>
+        <v>14292.03644497043</v>
       </c>
       <c r="C26">
-        <v>27.49563464962482</v>
+        <v>27.49563464962462</v>
       </c>
       <c r="D26">
         <v>30626.32453314528</v>
       </c>
       <c r="E26">
-        <v>5825.259704076629</v>
+        <v>5825.259704076633</v>
       </c>
       <c r="F26">
-        <v>5305.933434517063</v>
+        <v>5305.93343451707</v>
       </c>
       <c r="G26">
-        <v>13.23783914473894</v>
+        <v>13.23783914473891</v>
       </c>
       <c r="H26">
-        <v>33.80582256196081</v>
+        <v>33.8058225619608</v>
       </c>
       <c r="I26">
-        <v>2.446584302521565E-09</v>
+        <v>2.446584302521561E-09</v>
       </c>
       <c r="J26">
-        <v>1.34702891660006E-09</v>
+        <v>1.347028916600059E-09</v>
       </c>
       <c r="K26">
-        <v>0.000295868929497711</v>
+        <v>0.0002958689294977115</v>
       </c>
       <c r="L26">
         <v>0.1264777749742171</v>
       </c>
       <c r="M26">
-        <v>938.4842148328352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1264775942448021</v>
+      </c>
+      <c r="N26">
+        <v>938.4842148328361</v>
+      </c>
+      <c r="O26">
+        <v>1.807294150182112E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>64.03284840981132</v>
+        <v>64.03284840981131</v>
       </c>
       <c r="B27">
-        <v>16829.63596355525</v>
+        <v>16829.63596355507</v>
       </c>
       <c r="C27">
-        <v>31.94491174213706</v>
+        <v>31.94491174213671</v>
       </c>
       <c r="D27">
-        <v>30460.33551291387</v>
+        <v>30460.33551291388</v>
       </c>
       <c r="E27">
-        <v>5792.365085479926</v>
+        <v>5792.365085479923</v>
       </c>
       <c r="F27">
-        <v>5266.084524109393</v>
+        <v>5266.084524109392</v>
       </c>
       <c r="G27">
-        <v>12.49652274568127</v>
+        <v>12.49652274568137</v>
       </c>
       <c r="H27">
-        <v>32.33588446940463</v>
+        <v>32.33588446940471</v>
       </c>
       <c r="I27">
-        <v>2.497297402744728E-09</v>
+        <v>2.497297402744724E-09</v>
       </c>
       <c r="J27">
-        <v>1.413592510501887E-09</v>
+        <v>1.413592510501886E-09</v>
       </c>
       <c r="K27">
-        <v>0.0002793767573274166</v>
+        <v>0.0002793767573274172</v>
       </c>
       <c r="L27">
-        <v>0.126459984949844</v>
+        <v>0.1264599849498441</v>
       </c>
       <c r="M27">
-        <v>930.681268236243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1264597963175862</v>
+      </c>
+      <c r="N27">
+        <v>930.6812682362429</v>
+      </c>
+      <c r="O27">
+        <v>1.886322579229259E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>64.96785175913595</v>
+        <v>64.96785175913594</v>
       </c>
       <c r="B28">
-        <v>19711.94172424271</v>
+        <v>19711.9417242425</v>
       </c>
       <c r="C28">
-        <v>36.92802064885739</v>
+        <v>36.928020648857</v>
       </c>
       <c r="D28">
         <v>30297.21730234187</v>
       </c>
       <c r="E28">
-        <v>5760.536347348715</v>
+        <v>5760.536347348713</v>
       </c>
       <c r="F28">
-        <v>5227.393348869061</v>
+        <v>5227.393348869059</v>
       </c>
       <c r="G28">
-        <v>11.8446791099075</v>
+        <v>11.84467910990749</v>
       </c>
       <c r="H28">
-        <v>31.03601227041997</v>
+        <v>31.03601227041996</v>
       </c>
       <c r="I28">
-        <v>2.550166266662289E-09</v>
+        <v>2.550166266662286E-09</v>
       </c>
       <c r="J28">
         <v>1.48397821940033E-09</v>
       </c>
       <c r="K28">
-        <v>0.0002644859586496868</v>
+        <v>0.0002644859586496872</v>
       </c>
       <c r="L28">
         <v>0.1263989623812358</v>
       </c>
       <c r="M28">
-        <v>922.7178804081599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1263987654170272</v>
+      </c>
+      <c r="N28">
+        <v>922.7178804081606</v>
+      </c>
+      <c r="O28">
+        <v>1.969642086168938E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>65.90285510846059</v>
+        <v>65.90285510846057</v>
       </c>
       <c r="B29">
-        <v>22971.04056356871</v>
+        <v>22971.04056356872</v>
       </c>
       <c r="C29">
-        <v>42.48627653751426</v>
+        <v>42.4862765375143</v>
       </c>
       <c r="D29">
         <v>30136.67854618467</v>
       </c>
       <c r="E29">
-        <v>5729.606355796303</v>
+        <v>5729.606355796304</v>
       </c>
       <c r="F29">
         <v>5189.698927451946</v>
       </c>
       <c r="G29">
-        <v>11.27239500150243</v>
+        <v>11.27239500150241</v>
       </c>
       <c r="H29">
-        <v>29.88978101179588</v>
+        <v>29.88978101179585</v>
       </c>
       <c r="I29">
         <v>2.605319652879879E-09</v>
       </c>
       <c r="J29">
-        <v>1.558291551956519E-09</v>
+        <v>1.558291551956518E-09</v>
       </c>
       <c r="K29">
-        <v>0.0002510143557582268</v>
+        <v>0.0002510143557582267</v>
       </c>
       <c r="L29">
         <v>0.126292055285515</v>
       </c>
       <c r="M29">
-        <v>914.6173053010364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.1262918495538451</v>
+      </c>
+      <c r="N29">
+        <v>914.6173053010361</v>
+      </c>
+      <c r="O29">
+        <v>2.057316698962336E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>66.83785845778522</v>
+        <v>66.8378584577852</v>
       </c>
       <c r="B30">
-        <v>26640.48054712303</v>
+        <v>26640.48054712285</v>
       </c>
       <c r="C30">
-        <v>48.66229861804779</v>
+        <v>48.66229861804747</v>
       </c>
       <c r="D30">
         <v>29978.44712100012</v>
       </c>
       <c r="E30">
-        <v>5699.422491308604</v>
+        <v>5699.422491308609</v>
       </c>
       <c r="F30">
-        <v>5152.854874610061</v>
+        <v>5152.854874610067</v>
       </c>
       <c r="G30">
-        <v>10.77054797202752</v>
+        <v>10.7705479720275</v>
       </c>
       <c r="H30">
         <v>28.8822472123332</v>
       </c>
       <c r="I30">
-        <v>2.662893152504421E-09</v>
+        <v>2.662893152504419E-09</v>
       </c>
       <c r="J30">
-        <v>1.636624443851457E-09</v>
+        <v>1.636624443851456E-09</v>
       </c>
       <c r="K30">
-        <v>0.0002387935942003278</v>
+        <v>0.0002387935942003282</v>
       </c>
       <c r="L30">
-        <v>0.1261359306385457</v>
+        <v>0.1261359306385458</v>
       </c>
       <c r="M30">
-        <v>906.4028915322027</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.1261357156995483</v>
+      </c>
+      <c r="N30">
+        <v>906.4028915322034</v>
+      </c>
+      <c r="O30">
+        <v>2.149389973939035E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>67.77286180710983</v>
+        <v>67.77286180710982</v>
       </c>
       <c r="B31">
-        <v>30755.23153585513</v>
+        <v>30755.23153585489</v>
       </c>
       <c r="C31">
-        <v>55.49997727843925</v>
+        <v>55.49997727843883</v>
       </c>
       <c r="D31">
         <v>29822.26840981322</v>
@@ -1759,7 +1945,7 @@
         <v>10.33080968603664</v>
       </c>
       <c r="H31">
-        <v>27.99987615865464</v>
+        <v>27.99987615865463</v>
       </c>
       <c r="I31">
         <v>2.72303005118447E-09</v>
@@ -1771,39 +1957,45 @@
         <v>0.0002276721178761315</v>
       </c>
       <c r="L31">
-        <v>0.1259265346166148</v>
+        <v>0.1259265346166147</v>
       </c>
       <c r="M31">
-        <v>898.0970853937795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1259263100282249</v>
+      </c>
+      <c r="N31">
+        <v>898.0970853937794</v>
+      </c>
+      <c r="O31">
+        <v>2.245883897684354E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>68.70786515643447</v>
+        <v>68.70786515643445</v>
       </c>
       <c r="B32">
-        <v>35351.64167182494</v>
+        <v>35351.6416718249</v>
       </c>
       <c r="C32">
-        <v>63.04444635219139</v>
+        <v>63.04444635219134</v>
       </c>
       <c r="D32">
         <v>29667.90373040425</v>
       </c>
       <c r="E32">
-        <v>5640.747550353826</v>
+        <v>5640.747550353831</v>
       </c>
       <c r="F32">
-        <v>5081.197561503569</v>
+        <v>5081.197561503574</v>
       </c>
       <c r="G32">
-        <v>9.945628715645835</v>
+        <v>9.945628715645853</v>
       </c>
       <c r="H32">
-        <v>27.23045795475362</v>
+        <v>27.23045795475363</v>
       </c>
       <c r="I32">
-        <v>2.785882240455702E-09</v>
+        <v>2.785882240455703E-09</v>
       </c>
       <c r="J32">
         <v>1.805642721383664E-09</v>
@@ -1815,121 +2007,139 @@
         <v>0.1256591375027054</v>
       </c>
       <c r="M32">
-        <v>889.7207048100773</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1256589028228853</v>
+      </c>
+      <c r="N32">
+        <v>889.7207048100769</v>
+      </c>
+      <c r="O32">
+        <v>2.3467982010865E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>69.6428685057591</v>
+        <v>69.64286850575908</v>
       </c>
       <c r="B33">
-        <v>40467.39034892472</v>
+        <v>40467.39034892467</v>
       </c>
       <c r="C33">
-        <v>71.34206122020028</v>
+        <v>71.34206122020022</v>
       </c>
       <c r="D33">
         <v>29515.1289008214</v>
       </c>
       <c r="E33">
-        <v>5612.012527889176</v>
+        <v>5612.012527889181</v>
       </c>
       <c r="F33">
-        <v>5046.153138645074</v>
+        <v>5046.153138645081</v>
       </c>
       <c r="G33">
-        <v>9.608199021784207</v>
+        <v>9.608199021784174</v>
       </c>
       <c r="H33">
         <v>26.56301738143528</v>
       </c>
       <c r="I33">
-        <v>2.851611186825344E-09</v>
+        <v>2.851611186825338E-09</v>
       </c>
       <c r="J33">
-        <v>1.896436097223483E-09</v>
+        <v>1.896436097223479E-09</v>
       </c>
       <c r="K33">
-        <v>0.0002082079060782179</v>
+        <v>0.0002082079060782182</v>
       </c>
       <c r="L33">
-        <v>0.1253284546919295</v>
+        <v>0.1253284546919296</v>
       </c>
       <c r="M33">
-        <v>881.2924553075081</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1253282094809173</v>
+      </c>
+      <c r="N33">
+        <v>881.2924553075093</v>
+      </c>
+      <c r="O33">
+        <v>2.452110123045997E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>70.57787185508373</v>
+        <v>70.57787185508371</v>
       </c>
       <c r="B34">
-        <v>46141.43822331635</v>
+        <v>46141.43822331627</v>
       </c>
       <c r="C34">
-        <v>80.44038338277556</v>
+        <v>80.44038338277544</v>
       </c>
       <c r="D34">
-        <v>29363.7329275504</v>
+        <v>29363.73292755041</v>
       </c>
       <c r="E34">
-        <v>5583.533529348824</v>
+        <v>5583.533529348825</v>
       </c>
       <c r="F34">
         <v>5011.494532588181</v>
       </c>
       <c r="G34">
-        <v>9.312418934794213</v>
+        <v>9.312418934794252</v>
       </c>
       <c r="H34">
-        <v>25.98772137120213</v>
+        <v>25.98772137120219</v>
       </c>
       <c r="I34">
-        <v>2.920388968027176E-09</v>
+        <v>2.920388968027172E-09</v>
       </c>
       <c r="J34">
-        <v>1.991464517181512E-09</v>
+        <v>1.991464517181507E-09</v>
       </c>
       <c r="K34">
-        <v>0.0001996465235237985</v>
+        <v>0.0001996465235237987</v>
       </c>
       <c r="L34">
         <v>0.1249288302942654</v>
       </c>
       <c r="M34">
-        <v>872.8286516794788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1249285741168009</v>
+      </c>
+      <c r="N34">
+        <v>872.8286516794794</v>
+      </c>
+      <c r="O34">
+        <v>2.561774644298704E-07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>71.51287520440836</v>
+        <v>71.51287520440835</v>
       </c>
       <c r="B35">
-        <v>52413.9748008324</v>
+        <v>52413.97480083114</v>
       </c>
       <c r="C35">
-        <v>90.38817208015486</v>
+        <v>90.38817208015267</v>
       </c>
       <c r="D35">
         <v>29213.51680338602</v>
       </c>
       <c r="E35">
-        <v>5555.212598683822</v>
+        <v>5555.21259868383</v>
       </c>
       <c r="F35">
-        <v>4977.130290154015</v>
+        <v>4977.130290154021</v>
       </c>
       <c r="G35">
-        <v>9.052844321416513</v>
+        <v>9.05284432141652</v>
       </c>
       <c r="H35">
-        <v>25.49578691172522</v>
+        <v>25.49578691172523</v>
       </c>
       <c r="I35">
-        <v>2.992399386962555E-09</v>
+        <v>2.992399386962556E-09</v>
       </c>
       <c r="J35">
-        <v>2.090742587169475E-09</v>
+        <v>2.090742587169471E-09</v>
       </c>
       <c r="K35">
         <v>0.0001917440253533882</v>
@@ -1938,182 +2148,212 @@
         <v>0.1244544668470136</v>
       </c>
       <c r="M35">
-        <v>864.3431062384601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1244541992744942</v>
+      </c>
+      <c r="N35">
+        <v>864.34310623846</v>
+      </c>
+      <c r="O35">
+        <v>2.675725193399213E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>72.44787855373299</v>
+        <v>72.44787855373298</v>
       </c>
       <c r="B36">
-        <v>59326.36411594191</v>
+        <v>59326.36411594213</v>
       </c>
       <c r="C36">
-        <v>101.2353834941959</v>
+        <v>101.2353834941963</v>
       </c>
       <c r="D36">
-        <v>29064.29240346821</v>
+        <v>29064.29240346823</v>
       </c>
       <c r="E36">
-        <v>5526.959678106661</v>
+        <v>5526.959678106657</v>
       </c>
       <c r="F36">
-        <v>4942.976892053422</v>
+        <v>4942.976892053423</v>
       </c>
       <c r="G36">
-        <v>8.824638727610564</v>
+        <v>8.824638727610614</v>
       </c>
       <c r="H36">
         <v>25.07939140857496</v>
       </c>
       <c r="I36">
-        <v>3.067839175042978E-09</v>
+        <v>3.067839175042967E-09</v>
       </c>
       <c r="J36">
-        <v>2.194270004002097E-09</v>
+        <v>2.194270004002091E-09</v>
       </c>
       <c r="K36">
-        <v>0.0001844246910806244</v>
+        <v>0.0001844246910806251</v>
       </c>
       <c r="L36">
-        <v>0.1238996840833066</v>
+        <v>0.1238996840833067</v>
       </c>
       <c r="M36">
-        <v>855.8471453711759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1238994046958259</v>
+      </c>
+      <c r="N36">
+        <v>855.8471453711766</v>
+      </c>
+      <c r="O36">
+        <v>2.793874808196506E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>73.38288190305762</v>
+        <v>73.38288190305759</v>
       </c>
       <c r="B37">
-        <v>66921.088990353</v>
+        <v>66921.08899035181</v>
       </c>
       <c r="C37">
-        <v>113.0331780315075</v>
+        <v>113.0331780315054</v>
       </c>
       <c r="D37">
         <v>28915.88146919482</v>
       </c>
       <c r="E37">
-        <v>5498.691779442119</v>
+        <v>5498.691779442122</v>
       </c>
       <c r="F37">
-        <v>4908.957921594942</v>
+        <v>4908.957921594945</v>
       </c>
       <c r="G37">
-        <v>8.623522574593345</v>
+        <v>8.623522574593322</v>
       </c>
       <c r="H37">
-        <v>24.73158692543286</v>
+        <v>24.73158692543288</v>
       </c>
       <c r="I37">
-        <v>3.146919297997542E-09</v>
+        <v>3.14691929799754E-09</v>
       </c>
       <c r="J37">
-        <v>2.30203258707599E-09</v>
+        <v>2.302032587075989E-09</v>
       </c>
       <c r="K37">
-        <v>0.0001776231264757357</v>
+        <v>0.000177623126475736</v>
       </c>
       <c r="L37">
-        <v>0.1232591917529696</v>
+        <v>0.1232591917529697</v>
       </c>
       <c r="M37">
-        <v>847.3497194303039</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1232589001411978</v>
+      </c>
+      <c r="N37">
+        <v>847.3497194303047</v>
+      </c>
+      <c r="O37">
+        <v>2.916117718424791E-07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>74.31788525238225</v>
+        <v>74.31788525238223</v>
       </c>
       <c r="B38">
-        <v>75241.69433032478</v>
+        <v>75241.69433032467</v>
       </c>
       <c r="C38">
-        <v>125.8339361708274</v>
+        <v>125.8339361708272</v>
       </c>
       <c r="D38">
-        <v>28768.11467082029</v>
+        <v>28768.1146708203</v>
       </c>
       <c r="E38">
         <v>5470.332227591058</v>
       </c>
       <c r="F38">
-        <v>4875.003306966434</v>
+        <v>4875.003306966435</v>
       </c>
       <c r="G38">
-        <v>8.445722923823137</v>
+        <v>8.445722923823146</v>
       </c>
       <c r="H38">
-        <v>24.4462192446867</v>
+        <v>24.44621924468671</v>
       </c>
       <c r="I38">
-        <v>3.2298663787395E-09</v>
+        <v>3.229866378739497E-09</v>
       </c>
       <c r="J38">
-        <v>2.414003636102907E-09</v>
+        <v>2.414003636102901E-09</v>
       </c>
       <c r="K38">
-        <v>0.0001712827318811622</v>
+        <v>0.0001712827318811625</v>
       </c>
       <c r="L38">
         <v>0.122528365787296</v>
       </c>
       <c r="M38">
-        <v>838.8575757588947</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1225280615541661</v>
+      </c>
+      <c r="N38">
+        <v>838.8575757588948</v>
+      </c>
+      <c r="O38">
+        <v>3.042331299558817E-07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>75.25288860170689</v>
+        <v>75.25288860170686</v>
       </c>
       <c r="B39">
-        <v>84332.72989143054</v>
+        <v>84332.72989143043</v>
       </c>
       <c r="C39">
-        <v>139.6912833562934</v>
+        <v>139.6912833562933</v>
       </c>
       <c r="D39">
-        <v>28620.83074051736</v>
+        <v>28620.83074051737</v>
       </c>
       <c r="E39">
-        <v>5441.809971343133</v>
+        <v>5441.809971343132</v>
       </c>
       <c r="F39">
-        <v>4841.048632329861</v>
+        <v>4841.048632329863</v>
       </c>
       <c r="G39">
-        <v>8.287924886496439</v>
+        <v>8.287924886496464</v>
       </c>
       <c r="H39">
-        <v>24.21785232612417</v>
+        <v>24.21785232612418</v>
       </c>
       <c r="I39">
-        <v>3.316924253635732E-09</v>
+        <v>3.316924253635725E-09</v>
       </c>
       <c r="J39">
-        <v>2.530145575103365E-09</v>
+        <v>2.530145575103361E-09</v>
       </c>
       <c r="K39">
-        <v>0.0001653543673088117</v>
+        <v>0.0001653543673088119</v>
       </c>
       <c r="L39">
         <v>0.1217035224590283</v>
       </c>
       <c r="M39">
-        <v>830.3754699948588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1217032052211948</v>
+      </c>
+      <c r="N39">
+        <v>830.3754699948591</v>
+      </c>
+      <c r="O39">
+        <v>3.172378335551287E-07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>76.18789195103152</v>
+        <v>76.18789195103149</v>
       </c>
       <c r="B40">
-        <v>94239.69290887855</v>
+        <v>94239.69290887857</v>
       </c>
       <c r="C40">
-        <v>154.660124434699</v>
+        <v>154.6601244346991</v>
       </c>
       <c r="D40">
         <v>28473.87566852826</v>
@@ -2122,60 +2362,66 @@
         <v>5413.058956420005</v>
       </c>
       <c r="F40">
-        <v>4807.034512619608</v>
+        <v>4807.034512619605</v>
       </c>
       <c r="G40">
-        <v>8.147225410851783</v>
+        <v>8.147225410851748</v>
       </c>
       <c r="H40">
         <v>24.04169846440684</v>
       </c>
       <c r="I40">
-        <v>3.408355680536536E-09</v>
+        <v>3.408355680536541E-09</v>
       </c>
       <c r="J40">
-        <v>2.650411834623231E-09</v>
+        <v>2.650411834623229E-09</v>
       </c>
       <c r="K40">
-        <v>0.0001597952151121838</v>
+        <v>0.0001597952151121837</v>
       </c>
       <c r="L40">
-        <v>0.1207821895910642</v>
+        <v>0.1207821895910641</v>
       </c>
       <c r="M40">
-        <v>821.9063961156626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1207818589801122</v>
+      </c>
+      <c r="N40">
+        <v>821.9063961156625</v>
+      </c>
+      <c r="O40">
+        <v>3.306109519459889E-07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>77.12289530035615</v>
+        <v>77.12289530035612</v>
       </c>
       <c r="B41">
-        <v>105008.9709615761</v>
+        <v>105008.9709615751</v>
       </c>
       <c r="C41">
-        <v>170.796688170441</v>
+        <v>170.7966881704392</v>
       </c>
       <c r="D41">
         <v>28327.10195578004</v>
       </c>
       <c r="E41">
-        <v>5384.01755548164</v>
+        <v>5384.017555481638</v>
       </c>
       <c r="F41">
         <v>4772.906026794335</v>
       </c>
       <c r="G41">
-        <v>8.021089916828586</v>
+        <v>8.021089916828597</v>
       </c>
       <c r="H41">
-        <v>23.91355423917418</v>
+        <v>23.91355423917419</v>
       </c>
       <c r="I41">
-        <v>3.504444219247161E-09</v>
+        <v>3.504444219247159E-09</v>
       </c>
       <c r="J41">
-        <v>2.774748918871856E-09</v>
+        <v>2.774748918871851E-09</v>
       </c>
       <c r="K41">
         <v>0.0001545678253451865</v>
@@ -2184,200 +2430,230 @@
         <v>0.1197633747929623</v>
       </c>
       <c r="M41">
+        <v>0.1197630304563507</v>
+      </c>
+      <c r="N41">
         <v>813.4518205542397</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>3.443366116310613E-07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>78.05789864968078</v>
+        <v>78.05789864968075</v>
       </c>
       <c r="B42">
-        <v>116687.7854096723</v>
+        <v>116687.7854096706</v>
       </c>
       <c r="C42">
-        <v>188.1585824280945</v>
+        <v>188.1585824280916</v>
       </c>
       <c r="D42">
-        <v>28180.36791699645</v>
+        <v>28180.36791699646</v>
       </c>
       <c r="E42">
-        <v>5354.628049825206</v>
+        <v>5354.62804982521</v>
       </c>
       <c r="F42">
-        <v>4738.612204300422</v>
+        <v>4738.612204300425</v>
       </c>
       <c r="G42">
-        <v>7.907312046641337</v>
+        <v>7.907312046641386</v>
       </c>
       <c r="H42">
-        <v>23.82974220043589</v>
+        <v>23.82974220043592</v>
       </c>
       <c r="I42">
-        <v>3.605496307814141E-09</v>
+        <v>3.605496307814135E-09</v>
       </c>
       <c r="J42">
-        <v>2.903098602298428E-09</v>
+        <v>2.903098602298423E-09</v>
       </c>
       <c r="K42">
-        <v>0.0001496393217854682</v>
+        <v>0.0001496393217854685</v>
       </c>
       <c r="L42">
-        <v>0.1186478259508156</v>
+        <v>0.1186478259508157</v>
       </c>
       <c r="M42">
+        <v>0.1186474675525445</v>
+      </c>
+      <c r="N42">
         <v>805.0119099270273</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="O42">
+        <v>3.583982711913083E-07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>78.99290199900541</v>
+        <v>78.99290199900538</v>
       </c>
       <c r="B43">
-        <v>129324.1357190899</v>
+        <v>129324.1357190874</v>
       </c>
       <c r="C43">
-        <v>206.8048606912188</v>
+        <v>206.8048606912146</v>
       </c>
       <c r="D43">
         <v>28033.53702891629</v>
       </c>
       <c r="E43">
-        <v>5324.836157607018</v>
+        <v>5324.836157607022</v>
       </c>
       <c r="F43">
-        <v>4704.105559618831</v>
+        <v>4704.105559618833</v>
       </c>
       <c r="G43">
-        <v>7.80397664881865</v>
+        <v>7.803976648818706</v>
       </c>
       <c r="H43">
-        <v>23.78705812461988</v>
+        <v>23.78705812461995</v>
       </c>
       <c r="I43">
-        <v>3.711843561125377E-09</v>
+        <v>3.711843561125379E-09</v>
       </c>
       <c r="J43">
-        <v>3.035400200881731E-09</v>
+        <v>3.03540020088173E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001449807446363247</v>
+        <v>0.0001449807446363246</v>
       </c>
       <c r="L43">
         <v>0.1174382680826153</v>
       </c>
       <c r="M43">
-        <v>796.5857453829548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1174378953036178</v>
+      </c>
+      <c r="N43">
+        <v>796.5857453829543</v>
+      </c>
+      <c r="O43">
+        <v>3.727789974559457E-07</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>79.92790534833004</v>
+        <v>79.92790534833001</v>
       </c>
       <c r="B44">
-        <v>142966.744963172</v>
+        <v>142966.7449631732</v>
       </c>
       <c r="C44">
-        <v>226.7961006891455</v>
+        <v>226.7961006891477</v>
       </c>
       <c r="D44">
-        <v>27886.4773187362</v>
+        <v>27886.47731873621</v>
       </c>
       <c r="E44">
-        <v>5294.590603585089</v>
+        <v>5294.590603585093</v>
       </c>
       <c r="F44">
-        <v>4669.341669949618</v>
+        <v>4669.341669949626</v>
       </c>
       <c r="G44">
-        <v>7.709426001782886</v>
+        <v>7.709426001782895</v>
       </c>
       <c r="H44">
-        <v>23.78272360371344</v>
+        <v>23.78272360371347</v>
       </c>
       <c r="I44">
-        <v>3.823845321959324E-09</v>
+        <v>3.823845321959319E-09</v>
       </c>
       <c r="J44">
-        <v>3.171592866757273E-09</v>
+        <v>3.171592866757267E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001405665068585562</v>
+        <v>0.0001405665068585564</v>
       </c>
       <c r="L44">
         <v>0.1161395852613922</v>
       </c>
       <c r="M44">
-        <v>788.1715193211406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.116139197799656</v>
+      </c>
+      <c r="N44">
+        <v>788.1715193211412</v>
+      </c>
+      <c r="O44">
+        <v>3.874617362558357E-07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>80.86290869765466</v>
+        <v>80.86290869765465</v>
       </c>
       <c r="B45">
-        <v>157665.0067715975</v>
+        <v>157665.0067715973</v>
       </c>
       <c r="C45">
-        <v>248.1944960335746</v>
+        <v>248.1944960335744</v>
       </c>
       <c r="D45">
-        <v>27739.0607883417</v>
+        <v>27739.06078834169</v>
       </c>
       <c r="E45">
         <v>5263.84272559017</v>
       </c>
       <c r="F45">
-        <v>4634.278791314309</v>
+        <v>4634.278791314308</v>
       </c>
       <c r="G45">
-        <v>7.62222920270055</v>
+        <v>7.62222920270056</v>
       </c>
       <c r="H45">
-        <v>23.81434368374844</v>
+        <v>23.81434368374848</v>
       </c>
       <c r="I45">
-        <v>3.941891498859842E-09</v>
+        <v>3.94189149885985E-09</v>
       </c>
       <c r="J45">
-        <v>3.311617860247966E-09</v>
+        <v>3.311617860247973E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001363739434644355</v>
+        <v>0.0001363739434644354</v>
       </c>
       <c r="L45">
-        <v>0.1147589019473207</v>
+        <v>0.1147589019473206</v>
       </c>
       <c r="M45">
-        <v>779.7667123029851</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1147584995177487</v>
+      </c>
+      <c r="N45">
+        <v>779.7667123029845</v>
+      </c>
+      <c r="O45">
+        <v>4.024295719406023E-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>81.79791204697929</v>
+        <v>81.79791204697928</v>
       </c>
       <c r="B46">
-        <v>173468.9339804378</v>
+        <v>173468.9339804376</v>
       </c>
       <c r="C46">
-        <v>271.0639619262962</v>
+        <v>271.063961926296</v>
       </c>
       <c r="D46">
         <v>27591.16287028098</v>
       </c>
       <c r="E46">
-        <v>5232.546113163426</v>
+        <v>5232.546113163434</v>
       </c>
       <c r="F46">
-        <v>4598.877508603832</v>
+        <v>4598.877508603839</v>
       </c>
       <c r="G46">
-        <v>7.5411545913446</v>
+        <v>7.541154591344615</v>
       </c>
       <c r="H46">
-        <v>23.87986924334829</v>
+        <v>23.87986924334831</v>
       </c>
       <c r="I46">
-        <v>4.066405730168941E-09</v>
+        <v>4.066405730168947E-09</v>
       </c>
       <c r="J46">
         <v>3.455420760316513E-09</v>
@@ -2389,39 +2665,45 @@
         <v>0.1133055124115242</v>
       </c>
       <c r="M46">
-        <v>771.3682494965594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1133050947455534</v>
+      </c>
+      <c r="N46">
+        <v>771.3682494965589</v>
+      </c>
+      <c r="O46">
+        <v>4.17665970818429E-07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>82.73291539630392</v>
+        <v>82.73291539630391</v>
       </c>
       <c r="B47">
-        <v>190429.1092255114</v>
+        <v>190429.1092255074</v>
       </c>
       <c r="C47">
-        <v>295.4702561923257</v>
+        <v>295.4702561923193</v>
       </c>
       <c r="D47">
-        <v>27442.66191177884</v>
+        <v>27442.66191177885</v>
       </c>
       <c r="E47">
-        <v>5200.656274037156</v>
+        <v>5200.656274037161</v>
       </c>
       <c r="F47">
-        <v>4563.10041535545</v>
+        <v>4563.100415355455</v>
       </c>
       <c r="G47">
-        <v>7.465145041546005</v>
+        <v>7.465145041546021</v>
       </c>
       <c r="H47">
         <v>23.97756379326943</v>
       </c>
       <c r="I47">
-        <v>4.197848919353099E-09</v>
+        <v>4.197848919353097E-09</v>
       </c>
       <c r="J47">
-        <v>3.602953582316775E-09</v>
+        <v>3.602953582316771E-09</v>
       </c>
       <c r="K47">
         <v>0.0001285755977213282</v>
@@ -2430,141 +2712,165 @@
         <v>0.11179061707125</v>
       </c>
       <c r="M47">
-        <v>762.9726370411837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1117901839162452</v>
+      </c>
+      <c r="N47">
+        <v>762.9726370411836</v>
+      </c>
+      <c r="O47">
+        <v>4.331550048065107E-07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>83.66791874562855</v>
+        <v>83.66791874562854</v>
       </c>
       <c r="B48">
-        <v>208596.6377135831</v>
+        <v>208596.6377135823</v>
       </c>
       <c r="C48">
-        <v>321.4811171216447</v>
+        <v>321.4811171216434</v>
       </c>
       <c r="D48">
-        <v>27293.43868338712</v>
+        <v>27293.43868338713</v>
       </c>
       <c r="E48">
-        <v>5168.130324367988</v>
+        <v>5168.130324367994</v>
       </c>
       <c r="F48">
-        <v>4526.911819292435</v>
+        <v>4526.911819292442</v>
       </c>
       <c r="G48">
-        <v>7.393295930164957</v>
+        <v>7.393295930164949</v>
       </c>
       <c r="H48">
-        <v>24.10597438006542</v>
+        <v>24.10597438006537</v>
       </c>
       <c r="I48">
-        <v>4.336723193571432E-09</v>
+        <v>4.336723193571422E-09</v>
       </c>
       <c r="J48">
-        <v>3.754176780117236E-09</v>
+        <v>3.754176780117233E-09</v>
       </c>
       <c r="K48">
-        <v>0.0001249360066329812</v>
+        <v>0.0001249360066329814</v>
       </c>
       <c r="L48">
-        <v>0.1102268530064593</v>
+        <v>0.1102268530064595</v>
       </c>
       <c r="M48">
-        <v>754.5760794057605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1102264041249068</v>
+      </c>
+      <c r="N48">
+        <v>754.5760794057611</v>
+      </c>
+      <c r="O48">
+        <v>4.488815526317594E-07</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>84.60292209495319</v>
+        <v>84.60292209495317</v>
       </c>
       <c r="B49">
-        <v>228023.1024037561</v>
+        <v>228023.1024037509</v>
       </c>
       <c r="C49">
-        <v>349.1664198736477</v>
+        <v>349.1664198736393</v>
       </c>
       <c r="D49">
-        <v>27143.37590912907</v>
+        <v>27143.37590912908</v>
       </c>
       <c r="E49">
-        <v>5134.926698853694</v>
+        <v>5134.926698853702</v>
       </c>
       <c r="F49">
-        <v>4490.277469899459</v>
+        <v>4490.277469899466</v>
       </c>
       <c r="G49">
-        <v>7.324835581794713</v>
+        <v>7.324835581794711</v>
       </c>
       <c r="H49">
         <v>24.26390628811484</v>
       </c>
       <c r="I49">
-        <v>4.48357634545018E-09</v>
+        <v>4.48357634545017E-09</v>
       </c>
       <c r="J49">
-        <v>3.909061117709429E-09</v>
+        <v>3.909061117709424E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001214499781044733</v>
+        <v>0.0001214499781044736</v>
       </c>
       <c r="L49">
-        <v>0.1086276475732904</v>
+        <v>0.1086276475732905</v>
       </c>
       <c r="M49">
-        <v>746.1745792239429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1086271827418136</v>
+      </c>
+      <c r="N49">
+        <v>746.1745792239436</v>
+      </c>
+      <c r="O49">
+        <v>4.648314769817551E-07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>85.53792544427782</v>
+        <v>85.53792544427779</v>
       </c>
       <c r="B50">
-        <v>248760.5218338603</v>
+        <v>248760.5218338578</v>
       </c>
       <c r="C50">
-        <v>378.5983535146947</v>
+        <v>378.5983535146906</v>
       </c>
       <c r="D50">
-        <v>26992.35781522162</v>
+        <v>26992.35781522163</v>
       </c>
       <c r="E50">
-        <v>5101.004877069338</v>
+        <v>5101.004877069344</v>
       </c>
       <c r="F50">
-        <v>4453.164304527576</v>
+        <v>4453.16430452758</v>
       </c>
       <c r="G50">
-        <v>7.259107983909529</v>
+        <v>7.259107983909538</v>
       </c>
       <c r="H50">
-        <v>24.45040125203732</v>
+        <v>24.45040125203731</v>
       </c>
       <c r="I50">
-        <v>4.639006827485581E-09</v>
+        <v>4.639006827485575E-09</v>
       </c>
       <c r="J50">
-        <v>4.067589402905822E-09</v>
+        <v>4.067589402905811E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001181048680956297</v>
+        <v>0.0001181048680956299</v>
       </c>
       <c r="L50">
-        <v>0.107006466470457</v>
+        <v>0.1070064664704571</v>
       </c>
       <c r="M50">
-        <v>737.7640212955411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1070059854786801</v>
+      </c>
+      <c r="N50">
+        <v>737.7640212955414</v>
+      </c>
+      <c r="O50">
+        <v>4.809917769118087E-07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>86.47292879360245</v>
+        <v>86.47292879360242</v>
       </c>
       <c r="B51">
-        <v>270861.3108347861</v>
+        <v>270861.3108347856</v>
       </c>
       <c r="C51">
-        <v>409.8516211280065</v>
+        <v>409.8516211280059</v>
       </c>
       <c r="D51">
         <v>26840.26969465419</v>
@@ -2573,244 +2879,280 @@
         <v>5066.325122542093</v>
       </c>
       <c r="F51">
-        <v>4415.540209721791</v>
+        <v>4415.54020972179</v>
       </c>
       <c r="G51">
-        <v>7.195557569637608</v>
+        <v>7.195557569637625</v>
       </c>
       <c r="H51">
-        <v>24.66471891421062</v>
+        <v>24.66471891421059</v>
       </c>
       <c r="I51">
-        <v>4.803669379688119E-09</v>
+        <v>4.803669379688113E-09</v>
       </c>
       <c r="J51">
-        <v>4.229758082399095E-09</v>
+        <v>4.229758082399091E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001148894018252455</v>
+        <v>0.0001148894018252456</v>
       </c>
       <c r="L51">
-        <v>0.1053760558467104</v>
+        <v>0.1053760558467105</v>
       </c>
       <c r="M51">
-        <v>729.340242506454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1053755584959949</v>
+      </c>
+      <c r="N51">
+        <v>729.3402425064539</v>
+      </c>
+      <c r="O51">
+        <v>4.973507156085507E-07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>87.40793214292708</v>
+        <v>87.40793214292705</v>
       </c>
       <c r="B52">
-        <v>294378.2443891609</v>
+        <v>294378.2443891608</v>
       </c>
       <c r="C52">
-        <v>443.0036658622509</v>
+        <v>443.0036658622508</v>
       </c>
       <c r="D52">
         <v>26686.99748506909</v>
       </c>
       <c r="E52">
-        <v>5030.848231245564</v>
+        <v>5030.848231245562</v>
       </c>
       <c r="F52">
-        <v>4377.373794639521</v>
+        <v>4377.373794639519</v>
       </c>
       <c r="G52">
-        <v>7.133715872056913</v>
+        <v>7.133715872056911</v>
       </c>
       <c r="H52">
-        <v>24.90632128843501</v>
+        <v>24.90632128843496</v>
       </c>
       <c r="I52">
-        <v>4.978281384362302E-09</v>
+        <v>4.978281384362293E-09</v>
       </c>
       <c r="J52">
-        <v>4.395578703132608E-09</v>
+        <v>4.395578703132601E-09</v>
       </c>
       <c r="K52">
-        <v>0.00011179352296267</v>
+        <v>0.0001117935229626702</v>
       </c>
       <c r="L52">
-        <v>0.1037477814315573</v>
+        <v>0.1037477814315574</v>
       </c>
       <c r="M52">
-        <v>720.8990893851213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.1037472675336331</v>
+      </c>
+      <c r="N52">
+        <v>720.8990893851217</v>
+      </c>
+      <c r="O52">
+        <v>5.138979242644968E-07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>88.34293549225171</v>
+        <v>88.34293549225167</v>
       </c>
       <c r="B53">
-        <v>319364.4249099448</v>
+        <v>319364.4249099466</v>
       </c>
       <c r="C53">
-        <v>478.1349262786075</v>
+        <v>478.1349262786109</v>
       </c>
       <c r="D53">
-        <v>26532.42735752782</v>
+        <v>26532.42735752783</v>
       </c>
       <c r="E53">
-        <v>4994.53528633246</v>
+        <v>4994.535286332453</v>
       </c>
       <c r="F53">
-        <v>4338.634173578166</v>
+        <v>4338.634173578158</v>
       </c>
       <c r="G53">
-        <v>7.073189863557792</v>
+        <v>7.073189863557802</v>
       </c>
       <c r="H53">
         <v>25.17486001993819</v>
       </c>
       <c r="I53">
-        <v>5.16363005772967E-09</v>
+        <v>5.163630057729668E-09</v>
       </c>
       <c r="J53">
-        <v>4.565079249557746E-09</v>
+        <v>4.565079249557742E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001088082597779842</v>
+        <v>0.0001088082597779844</v>
       </c>
       <c r="L53">
-        <v>0.1021311451719307</v>
+        <v>0.1021311451719308</v>
       </c>
       <c r="M53">
-        <v>712.4364649168501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1021306145474475</v>
+      </c>
+      <c r="N53">
+        <v>712.43646491685</v>
+      </c>
+      <c r="O53">
+        <v>5.306244832648484E-07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>89.27793884157634</v>
+        <v>89.2779388415763</v>
       </c>
       <c r="B54">
-        <v>345873.2532393102</v>
+        <v>345873.2532393064</v>
       </c>
       <c r="C54">
-        <v>515.3291249242244</v>
+        <v>515.3291249242184</v>
       </c>
       <c r="D54">
-        <v>26376.44531386066</v>
+        <v>26376.44531386067</v>
       </c>
       <c r="E54">
-        <v>4957.347416038257</v>
+        <v>4957.347416038256</v>
       </c>
       <c r="F54">
-        <v>4299.290754753206</v>
+        <v>4299.290754753207</v>
       </c>
       <c r="G54">
-        <v>7.013651805311687</v>
+        <v>7.013651805311723</v>
       </c>
       <c r="H54">
-        <v>25.47016626332763</v>
+        <v>25.4701662633276</v>
       </c>
       <c r="I54">
-        <v>5.360580606997505E-09</v>
+        <v>5.360580606997478E-09</v>
       </c>
       <c r="J54">
-        <v>4.73830536994911E-09</v>
+        <v>4.7383053699491E-09</v>
       </c>
       <c r="K54">
-        <v>0.0001059256054684323</v>
+        <v>0.0001059256054684325</v>
       </c>
       <c r="L54">
-        <v>0.1005335201711157</v>
+        <v>0.1005335201711158</v>
       </c>
       <c r="M54">
-        <v>703.9483661042102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1005329726481335</v>
+      </c>
+      <c r="N54">
+        <v>703.9483661042111</v>
+      </c>
+      <c r="O54">
+        <v>5.475229822741821E-07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>90.21294219090097</v>
+        <v>90.21294219090093</v>
       </c>
       <c r="B55">
-        <v>373958.4036987865</v>
+        <v>373958.4036987853</v>
       </c>
       <c r="C55">
-        <v>554.6735947129982</v>
+        <v>554.6735947129966</v>
       </c>
       <c r="D55">
         <v>26218.93679038475</v>
       </c>
       <c r="E55">
-        <v>4919.245551779371</v>
+        <v>4919.245551779372</v>
       </c>
       <c r="F55">
-        <v>4259.31303256569</v>
+        <v>4259.313032565691</v>
       </c>
       <c r="G55">
-        <v>6.95483044447022</v>
+        <v>6.954830444470204</v>
       </c>
       <c r="H55">
         <v>25.79224303360191</v>
       </c>
       <c r="I55">
-        <v>5.570085504133693E-09</v>
+        <v>5.570085504133684E-09</v>
       </c>
       <c r="J55">
-        <v>4.915321507597685E-09</v>
+        <v>4.915321507597679E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001031384105154613</v>
+        <v>0.0001031384105154614</v>
       </c>
       <c r="L55">
-        <v>0.09896010160476022</v>
+        <v>0.09896010160476033</v>
       </c>
       <c r="M55">
-        <v>695.430913610085</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.09895953701719937</v>
+      </c>
+      <c r="N55">
+        <v>695.4309136100856</v>
+      </c>
+      <c r="O55">
+        <v>5.645875609718327E-07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>91.14794554022561</v>
+        <v>91.14794554022556</v>
       </c>
       <c r="B56">
-        <v>403673.8035578211</v>
+        <v>403673.803557817</v>
       </c>
       <c r="C56">
-        <v>596.2596484435369</v>
+        <v>596.2596484435303</v>
       </c>
       <c r="D56">
-        <v>26059.78626583726</v>
+        <v>26059.78626583725</v>
       </c>
       <c r="E56">
-        <v>4880.190183536302</v>
+        <v>4880.190183536304</v>
       </c>
       <c r="F56">
         <v>4218.670380667862</v>
       </c>
       <c r="G56">
-        <v>6.896503409775083</v>
+        <v>6.896503409775087</v>
       </c>
       <c r="H56">
-        <v>26.14125992099205</v>
+        <v>26.14125992099207</v>
       </c>
       <c r="I56">
-        <v>5.793195054887121E-09</v>
+        <v>5.793195054887127E-09</v>
       </c>
       <c r="J56">
-        <v>5.096211954534404E-09</v>
+        <v>5.096211954534405E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001004402854172371</v>
+        <v>0.000100440285417237</v>
       </c>
       <c r="L56">
-        <v>0.09741403711858125</v>
+        <v>0.09741403711858121</v>
       </c>
       <c r="M56">
-        <v>686.8803746623017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.0974134553046489</v>
+      </c>
+      <c r="N56">
+        <v>686.8803746623015</v>
+      </c>
+      <c r="O56">
+        <v>5.818139323120492E-07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>92.08294888955022</v>
+        <v>92.0829488895502</v>
       </c>
       <c r="B57">
-        <v>435073.6173296222</v>
+        <v>435073.6173296215</v>
       </c>
       <c r="C57">
-        <v>640.1829976421778</v>
+        <v>640.1829976421767</v>
       </c>
       <c r="D57">
         <v>25898.87687140282</v>
@@ -2822,98 +3164,110 @@
         <v>4177.331843180144</v>
       </c>
       <c r="G57">
-        <v>6.838490669361436</v>
+        <v>6.83849066936144</v>
       </c>
       <c r="H57">
-        <v>26.5175500985914</v>
+        <v>26.51755009859139</v>
       </c>
       <c r="I57">
-        <v>6.03106947456809E-09</v>
+        <v>6.031069474568077E-09</v>
       </c>
       <c r="J57">
-        <v>5.281081846605199E-09</v>
+        <v>5.281081846605198E-09</v>
       </c>
       <c r="K57">
-        <v>9.782551251710251E-05</v>
+        <v>9.782551251710262E-05</v>
       </c>
       <c r="L57">
-        <v>0.09589668160207396</v>
+        <v>0.09589668160207404</v>
       </c>
       <c r="M57">
-        <v>678.2931802431918</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.09589608240268388</v>
+      </c>
+      <c r="N57">
+        <v>678.2931802431924</v>
+      </c>
+      <c r="O57">
+        <v>5.99199390160951E-07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>93.01795223887486</v>
+        <v>93.01795223887483</v>
       </c>
       <c r="B58">
-        <v>468212.2363501229</v>
+        <v>468212.2363501189</v>
       </c>
       <c r="C58">
-        <v>686.5442279010049</v>
+        <v>686.5442279009985</v>
       </c>
       <c r="D58">
-        <v>25736.09000071639</v>
+        <v>25736.0900007164</v>
       </c>
       <c r="E58">
-        <v>4799.057178241206</v>
+        <v>4799.057178241203</v>
       </c>
       <c r="F58">
-        <v>4135.265921428729</v>
+        <v>4135.265921428725</v>
       </c>
       <c r="G58">
-        <v>6.780648927350761</v>
+        <v>6.780648927350753</v>
       </c>
       <c r="H58">
-        <v>26.92160959308817</v>
+        <v>26.92160959308812</v>
       </c>
       <c r="I58">
-        <v>6.28499272213964E-09</v>
+        <v>6.284992722139627E-09</v>
       </c>
       <c r="J58">
-        <v>5.470058119387517E-09</v>
+        <v>5.470058119387511E-09</v>
       </c>
       <c r="K58">
-        <v>9.528896593445055E-05</v>
+        <v>9.528896593445067E-05</v>
       </c>
       <c r="L58">
-        <v>0.09440791826723538</v>
+        <v>0.09440791826723546</v>
       </c>
       <c r="M58">
-        <v>669.6659374388134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.09440730152443236</v>
+      </c>
+      <c r="N58">
+        <v>669.6659374388138</v>
+      </c>
+      <c r="O58">
+        <v>6.167428031072743E-07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>93.95295558819949</v>
+        <v>93.95295558819946</v>
       </c>
       <c r="B59">
-        <v>503144.2741478669</v>
+        <v>503144.2741478629</v>
       </c>
       <c r="C59">
-        <v>735.4493390042533</v>
+        <v>735.4493390042468</v>
       </c>
       <c r="D59">
         <v>25571.30491768781</v>
       </c>
       <c r="E59">
-        <v>4756.896017253884</v>
+        <v>4756.896017253891</v>
       </c>
       <c r="F59">
-        <v>4092.440353563041</v>
+        <v>4092.440353563047</v>
       </c>
       <c r="G59">
-        <v>6.72286684815355</v>
+        <v>6.722866848153561</v>
       </c>
       <c r="H59">
-        <v>27.35409883442373</v>
+        <v>27.35409883442378</v>
       </c>
       <c r="I59">
-        <v>6.556388393000651E-09</v>
+        <v>6.556388393000656E-09</v>
       </c>
       <c r="J59">
-        <v>5.663290444769797E-09</v>
+        <v>5.6632904447698E-09</v>
       </c>
       <c r="K59">
         <v>9.282603882101377E-05</v>
@@ -2922,428 +3276,494 @@
         <v>0.092946496312557</v>
       </c>
       <c r="M59">
-        <v>660.9954376835153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.09294586186796087</v>
+      </c>
+      <c r="N59">
+        <v>660.9954376835152</v>
+      </c>
+      <c r="O59">
+        <v>6.344445961191872E-07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>94.8879589375241</v>
+        <v>94.88795893752408</v>
       </c>
       <c r="B60">
-        <v>539924.5681686716</v>
+        <v>539924.5681686668</v>
       </c>
       <c r="C60">
-        <v>787.010359420555</v>
+        <v>787.0103594205472</v>
       </c>
       <c r="D60">
         <v>25404.39835991558</v>
       </c>
       <c r="E60">
-        <v>4713.613750520449</v>
+        <v>4713.613750520457</v>
       </c>
       <c r="F60">
-        <v>4048.821884373001</v>
+        <v>4048.821884373005</v>
       </c>
       <c r="G60">
-        <v>6.665061009055693</v>
+        <v>6.665061009055691</v>
       </c>
       <c r="H60">
-        <v>27.81584655117151</v>
+        <v>27.8158465511715</v>
       </c>
       <c r="I60">
-        <v>6.846838030683921E-09</v>
+        <v>6.846838030683922E-09</v>
       </c>
       <c r="J60">
-        <v>5.860952168164428E-09</v>
+        <v>5.860952168164421E-09</v>
       </c>
       <c r="K60">
-        <v>9.043257732843551E-05</v>
+        <v>9.043257732843552E-05</v>
       </c>
       <c r="L60">
-        <v>0.09151034937357619</v>
+        <v>0.09151034937357622</v>
       </c>
       <c r="M60">
-        <v>652.2786615072609</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.09150969706685468</v>
+      </c>
+      <c r="N60">
+        <v>652.2786615072608</v>
+      </c>
+      <c r="O60">
+        <v>6.523067215444393E-07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>95.82296228684874</v>
+        <v>95.82296228684871</v>
       </c>
       <c r="B61">
-        <v>578608.1884789261</v>
+        <v>578608.1884789249</v>
       </c>
       <c r="C61">
-        <v>841.3460462067659</v>
+        <v>841.3460462067645</v>
       </c>
       <c r="D61">
-        <v>25235.2441353265</v>
+        <v>25235.24413532651</v>
       </c>
       <c r="E61">
-        <v>4669.164696678346</v>
+        <v>4669.164696678352</v>
       </c>
       <c r="F61">
-        <v>4004.376022557165</v>
+        <v>4004.37602255717</v>
       </c>
       <c r="G61">
-        <v>6.607172492601329</v>
+        <v>6.607172492601382</v>
       </c>
       <c r="H61">
-        <v>28.30785613669323</v>
+        <v>28.30785613669328</v>
       </c>
       <c r="I61">
         <v>7.158102291398356E-09</v>
       </c>
       <c r="J61">
-        <v>6.063241266433045E-09</v>
+        <v>6.063241266433042E-09</v>
       </c>
       <c r="K61">
         <v>8.810482079445821E-05</v>
       </c>
       <c r="L61">
-        <v>0.09009687356886049</v>
+        <v>0.09009687356886054</v>
       </c>
       <c r="M61">
-        <v>643.5127802754811</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.09009620323623972</v>
+      </c>
+      <c r="N61">
+        <v>643.5127802754807</v>
+      </c>
+      <c r="O61">
+        <v>6.703326208129804E-07</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>96.75796563617337</v>
+        <v>96.75796563617334</v>
       </c>
       <c r="B62">
-        <v>619250.4541334509</v>
+        <v>619250.4541334581</v>
       </c>
       <c r="C62">
-        <v>898.5826830457689</v>
+        <v>898.5826830457821</v>
       </c>
       <c r="D62">
         <v>25063.71270947856</v>
       </c>
       <c r="E62">
-        <v>4623.50104812005</v>
+        <v>4623.501048120045</v>
       </c>
       <c r="F62">
-        <v>3959.06678259325</v>
+        <v>3959.066782593249</v>
       </c>
       <c r="G62">
-        <v>6.549164040410627</v>
+        <v>6.549164040410663</v>
       </c>
       <c r="H62">
-        <v>28.83131467895456</v>
+        <v>28.83131467895455</v>
       </c>
       <c r="I62">
-        <v>7.492145486603858E-09</v>
+        <v>7.492145486603843E-09</v>
       </c>
       <c r="J62">
-        <v>6.270381346803347E-09</v>
+        <v>6.270381346803345E-09</v>
       </c>
       <c r="K62">
-        <v>8.583934774466054E-05</v>
+        <v>8.58393477446606E-05</v>
       </c>
       <c r="L62">
-        <v>0.0887031562221581</v>
+        <v>0.08870315622215812</v>
       </c>
       <c r="M62">
+        <v>0.08870246769498015</v>
+      </c>
+      <c r="N62">
         <v>634.69515530384</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="O62">
+        <v>6.885271779628647E-07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>97.692968985498</v>
+        <v>97.69296898549797</v>
       </c>
       <c r="B63">
-        <v>661906.9579574991</v>
+        <v>661906.957957499</v>
       </c>
       <c r="C63">
-        <v>958.8549910557607</v>
+        <v>958.854991055761</v>
       </c>
       <c r="D63">
-        <v>24889.67078068256</v>
+        <v>24889.67078068257</v>
       </c>
       <c r="E63">
-        <v>4576.572526858271</v>
+        <v>4576.572526858272</v>
       </c>
       <c r="F63">
-        <v>3912.856408227592</v>
+        <v>3912.856408227593</v>
       </c>
       <c r="G63">
-        <v>6.491017699409975</v>
+        <v>6.491017699409958</v>
       </c>
       <c r="H63">
-        <v>29.38760492736133</v>
+        <v>29.38760492736129</v>
       </c>
       <c r="I63">
-        <v>7.851164142419676E-09</v>
+        <v>7.851164142419658E-09</v>
       </c>
       <c r="J63">
-        <v>6.482622707469599E-09</v>
+        <v>6.48262270746959E-09</v>
       </c>
       <c r="K63">
-        <v>8.36330273717291E-05</v>
+        <v>8.363302737172921E-05</v>
       </c>
       <c r="L63">
-        <v>0.08732615507173404</v>
+        <v>0.08732615507173408</v>
       </c>
       <c r="M63">
-        <v>625.8233346321049</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.0873254481750681</v>
+      </c>
+      <c r="N63">
+        <v>625.8233346321056</v>
+      </c>
+      <c r="O63">
+        <v>7.068966659771061E-07</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>98.62797233482263</v>
+        <v>98.6279723348226</v>
       </c>
       <c r="B64">
-        <v>706633.6005543161</v>
+        <v>706633.600554314</v>
       </c>
       <c r="C64">
-        <v>1022.307169190334</v>
+        <v>1022.307169190331</v>
       </c>
       <c r="D64">
         <v>24712.9808397068</v>
       </c>
       <c r="E64">
-        <v>4528.326014138044</v>
+        <v>4528.326014138048</v>
       </c>
       <c r="F64">
-        <v>3865.705074431898</v>
+        <v>3865.705074431897</v>
       </c>
       <c r="G64">
-        <v>6.432732899982341</v>
+        <v>6.43273289998232</v>
       </c>
       <c r="H64">
-        <v>29.97832056700456</v>
+        <v>29.97832056700464</v>
       </c>
       <c r="I64">
-        <v>8.23762035691824E-09</v>
+        <v>8.237620356918272E-09</v>
       </c>
       <c r="J64">
-        <v>6.700243481316006E-09</v>
+        <v>6.700243481316007E-09</v>
       </c>
       <c r="K64">
-        <v>8.148297620043119E-05</v>
+        <v>8.148297620043112E-05</v>
       </c>
       <c r="L64">
-        <v>0.08596283302273114</v>
+        <v>0.08596283302273112</v>
       </c>
       <c r="M64">
-        <v>616.8950476512613</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.08596210757404441</v>
+      </c>
+      <c r="N64">
+        <v>616.8950476512609</v>
+      </c>
+      <c r="O64">
+        <v>7.254486867132902E-07</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>99.56297568414726</v>
+        <v>99.56297568414723</v>
       </c>
       <c r="B65">
-        <v>753486.6344088211</v>
+        <v>753486.6344088252</v>
       </c>
       <c r="C65">
-        <v>1089.094083532059</v>
+        <v>1089.094083532067</v>
       </c>
       <c r="D65">
-        <v>24533.50071030008</v>
+        <v>24533.50071030009</v>
       </c>
       <c r="E65">
-        <v>4478.70515048877</v>
+        <v>4478.705150488767</v>
       </c>
       <c r="F65">
-        <v>3817.570564468162</v>
+        <v>3817.570564468161</v>
       </c>
       <c r="G65">
-        <v>6.374324913319995</v>
+        <v>6.374324913320004</v>
       </c>
       <c r="H65">
-        <v>30.60528528943639</v>
+        <v>30.60528528943632</v>
       </c>
       <c r="I65">
-        <v>8.654280915521488E-09</v>
+        <v>8.65428091552144E-09</v>
       </c>
       <c r="J65">
-        <v>6.923550885403724E-09</v>
+        <v>6.923550885403709E-09</v>
       </c>
       <c r="K65">
-        <v>7.938651967813061E-05</v>
+        <v>7.93865196781308E-05</v>
       </c>
       <c r="L65">
-        <v>0.08461025595294874</v>
+        <v>0.08461025595294888</v>
       </c>
       <c r="M65">
-        <v>607.9081976950362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.08460951176084384</v>
+      </c>
+      <c r="N65">
+        <v>607.9081976950372</v>
+      </c>
+      <c r="O65">
+        <v>7.441921050307228E-07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>100.4979790334719</v>
       </c>
       <c r="B66">
-        <v>802522.719007668</v>
+        <v>802522.7190076663</v>
       </c>
       <c r="C66">
-        <v>1159.382627591871</v>
+        <v>1159.382627591869</v>
       </c>
       <c r="D66">
-        <v>24351.08306606013</v>
+        <v>24351.08306606014</v>
       </c>
       <c r="E66">
         <v>4427.649902768429</v>
       </c>
       <c r="F66">
-        <v>3768.407918460337</v>
+        <v>3768.407918460335</v>
       </c>
       <c r="G66">
-        <v>6.315823642288788</v>
+        <v>6.315823642288804</v>
       </c>
       <c r="H66">
-        <v>31.27057629620352</v>
+        <v>31.2705762962035</v>
       </c>
       <c r="I66">
-        <v>9.104263351776564E-09</v>
+        <v>9.104263351776551E-09</v>
       </c>
       <c r="J66">
-        <v>7.152882600656448E-09</v>
+        <v>7.15288260065644E-09</v>
       </c>
       <c r="K66">
-        <v>7.73411584512205E-05</v>
+        <v>7.73411584512206E-05</v>
       </c>
       <c r="L66">
-        <v>0.0832656616139955</v>
+        <v>0.08326566161399554</v>
       </c>
       <c r="M66">
+        <v>0.0832648984770179</v>
+      </c>
+      <c r="N66">
         <v>598.860852630123</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="O66">
+        <v>7.631369776370021E-07</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>101.4329823827965</v>
       </c>
       <c r="B67">
-        <v>853798.9879334081</v>
+        <v>853798.9879334169</v>
       </c>
       <c r="C67">
-        <v>1233.353278890101</v>
+        <v>1233.353278890118</v>
       </c>
       <c r="D67">
-        <v>24165.57491823487</v>
+        <v>24165.57491823488</v>
       </c>
       <c r="E67">
-        <v>4375.096094609868</v>
+        <v>4375.096094609867</v>
       </c>
       <c r="F67">
-        <v>3718.169049594535</v>
+        <v>3718.169049594533</v>
       </c>
       <c r="G67">
-        <v>6.257272706459756</v>
+        <v>6.257272706459753</v>
       </c>
       <c r="H67">
-        <v>31.97655305564196</v>
+        <v>31.97655305564199</v>
       </c>
       <c r="I67">
-        <v>9.591090430387938E-09</v>
+        <v>9.591090430387946E-09</v>
       </c>
       <c r="J67">
-        <v>7.38860830872586E-09</v>
+        <v>7.388608308725857E-09</v>
       </c>
       <c r="K67">
-        <v>7.534453909978843E-05</v>
+        <v>7.534453909978847E-05</v>
       </c>
       <c r="L67">
-        <v>0.08192650705438628</v>
+        <v>0.0819265070543863</v>
       </c>
       <c r="M67">
-        <v>589.7512334079921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.08192572475990934</v>
+      </c>
+      <c r="N67">
+        <v>589.751233407992</v>
+      </c>
+      <c r="O67">
+        <v>7.822944769650465E-07</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>102.3679857321212</v>
+        <v>102.3679857321211</v>
       </c>
       <c r="B68">
-        <v>907373.1289055084</v>
+        <v>907373.1289055075</v>
       </c>
       <c r="C68">
-        <v>1311.201880616028</v>
+        <v>1311.201880616027</v>
       </c>
       <c r="D68">
-        <v>23976.81706780554</v>
+        <v>23976.81706780555</v>
       </c>
       <c r="E68">
         <v>4320.974896559503</v>
       </c>
       <c r="F68">
-        <v>3666.802323769334</v>
+        <v>3666.802323769336</v>
       </c>
       <c r="G68">
-        <v>6.198728787678838</v>
+        <v>6.198728787678842</v>
       </c>
       <c r="H68">
-        <v>32.72589236647971</v>
+        <v>32.72589236647958</v>
       </c>
       <c r="I68">
-        <v>1.011875490122243E-08</v>
+        <v>1.011875490122238E-08</v>
       </c>
       <c r="J68">
-        <v>7.63113141651693E-09</v>
+        <v>7.631131416516919E-09</v>
       </c>
       <c r="K68">
-        <v>7.339442910808478E-05</v>
+        <v>7.339442910808489E-05</v>
       </c>
       <c r="L68">
-        <v>0.08059050081149707</v>
+        <v>0.08059050081149716</v>
       </c>
       <c r="M68">
-        <v>580.5777004745037</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.08058969913468678</v>
+      </c>
+      <c r="N68">
+        <v>580.5777004745045</v>
+      </c>
+      <c r="O68">
+        <v>8.016768103765953E-07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>103.3029890814458</v>
+        <v>103.3029890814457</v>
       </c>
       <c r="B69">
-        <v>963303.4777221991</v>
+        <v>963303.4777221826</v>
       </c>
       <c r="C69">
-        <v>1393.141681020258</v>
+        <v>1393.141681020229</v>
       </c>
       <c r="D69">
         <v>23784.64351357393</v>
       </c>
       <c r="E69">
-        <v>4265.212272137347</v>
+        <v>4265.212272137354</v>
       </c>
       <c r="F69">
-        <v>3614.252098212186</v>
+        <v>3614.252098212187</v>
       </c>
       <c r="G69">
-        <v>6.140261207676441</v>
+        <v>6.140261207676428</v>
       </c>
       <c r="H69">
-        <v>33.52163107901006</v>
+        <v>33.52163107901009</v>
       </c>
       <c r="I69">
-        <v>1.069179685374383E-08</v>
+        <v>1.069179685374387E-08</v>
       </c>
       <c r="J69">
-        <v>7.880891003559652E-09</v>
+        <v>7.880891003559656E-09</v>
       </c>
       <c r="K69">
-        <v>7.148869584825291E-05</v>
+        <v>7.148869584825283E-05</v>
       </c>
       <c r="L69">
-        <v>0.07925562475914699</v>
+        <v>0.07925562475914691</v>
       </c>
       <c r="M69">
-        <v>571.3387378717595</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.07925480346201207</v>
+      </c>
+      <c r="N69">
+        <v>571.3387378717589</v>
+      </c>
+      <c r="O69">
+        <v>8.212971348432174E-07</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>104.2379924307704</v>
       </c>
       <c r="B70">
-        <v>1021649.126989802</v>
+        <v>1021649.126989803</v>
       </c>
       <c r="C70">
-        <v>1479.405667319568</v>
+        <v>1479.405667319572</v>
       </c>
       <c r="D70">
         <v>23588.88080584727</v>
@@ -3355,807 +3775,927 @@
         <v>3560.458214299846</v>
       </c>
       <c r="G70">
-        <v>6.08195171382839</v>
+        <v>6.081951713828396</v>
       </c>
       <c r="H70">
         <v>34.36721820664668</v>
       </c>
       <c r="I70">
-        <v>1.131539662736664E-08</v>
+        <v>1.131539662736663E-08</v>
       </c>
       <c r="J70">
-        <v>8.138364033663839E-09</v>
+        <v>8.138364033663834E-09</v>
       </c>
       <c r="K70">
-        <v>6.962528935013589E-05</v>
+        <v>6.962528935013596E-05</v>
       </c>
       <c r="L70">
         <v>0.07792014917977097</v>
       </c>
       <c r="M70">
-        <v>562.0329348096827</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.07791930801030367</v>
+      </c>
+      <c r="N70">
+        <v>562.032934809683</v>
+      </c>
+      <c r="O70">
+        <v>8.411694673053088E-07</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>105.1729957800951</v>
+        <v>105.172995780095</v>
       </c>
       <c r="B71">
-        <v>1082470.050383525</v>
+        <v>1082470.050383531</v>
       </c>
       <c r="C71">
-        <v>1570.24923512598</v>
+        <v>1570.249235125992</v>
       </c>
       <c r="D71">
-        <v>23389.34733253262</v>
+        <v>23389.34733253263</v>
       </c>
       <c r="E71">
-        <v>4148.436901446885</v>
+        <v>4148.436901446882</v>
       </c>
       <c r="F71">
         <v>3505.355439627266</v>
       </c>
       <c r="G71">
-        <v>6.023894453361919</v>
+        <v>6.023894453361908</v>
       </c>
       <c r="H71">
-        <v>35.26657865546765</v>
+        <v>35.26657865546754</v>
       </c>
       <c r="I71">
-        <v>1.199548705459628E-08</v>
+        <v>1.199548705459623E-08</v>
       </c>
       <c r="J71">
-        <v>8.404067880528811E-09</v>
+        <v>8.404067880528794E-09</v>
       </c>
       <c r="K71">
-        <v>6.780222862114243E-05</v>
+        <v>6.780222862114252E-05</v>
       </c>
       <c r="L71">
-        <v>0.07658264346474837</v>
+        <v>0.07658264346474844</v>
       </c>
       <c r="M71">
-        <v>552.6589644331553</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.0765817821561576</v>
+      </c>
+      <c r="N71">
+        <v>552.658964433156</v>
+      </c>
+      <c r="O71">
+        <v>8.613085908353421E-07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>106.1079991294197</v>
+        <v>106.1079991294196</v>
       </c>
       <c r="B72">
-        <v>1145827.242934986</v>
+        <v>1145827.242934995</v>
       </c>
       <c r="C72">
-        <v>1665.953238466197</v>
+        <v>1665.953238466218</v>
       </c>
       <c r="D72">
         <v>23185.85252082213</v>
       </c>
       <c r="E72">
-        <v>4087.244372299508</v>
+        <v>4087.244372299509</v>
       </c>
       <c r="F72">
-        <v>3448.87285435045</v>
+        <v>3448.872854350453</v>
       </c>
       <c r="G72">
-        <v>5.966196120077663</v>
+        <v>5.966196120077687</v>
       </c>
       <c r="H72">
-        <v>36.2241914449285</v>
+        <v>36.22419144492857</v>
       </c>
       <c r="I72">
-        <v>1.273888990001822E-08</v>
+        <v>1.273888990001824E-08</v>
       </c>
       <c r="J72">
-        <v>8.678563227792896E-09</v>
+        <v>8.678563227792881E-09</v>
       </c>
       <c r="K72">
-        <v>6.60175912670211E-05</v>
+        <v>6.601759126702113E-05</v>
       </c>
       <c r="L72">
         <v>0.07524198387342891</v>
       </c>
       <c r="M72">
-        <v>543.2155594651191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.07524110214347206</v>
+      </c>
+      <c r="N72">
+        <v>543.2155594651188</v>
+      </c>
+      <c r="O72">
+        <v>8.817299568464608E-07</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>107.0430024787443</v>
       </c>
       <c r="B73">
-        <v>1211782.877437378</v>
+        <v>1211782.877437363</v>
       </c>
       <c r="C73">
-        <v>1766.827468830223</v>
+        <v>1766.827468830193</v>
       </c>
       <c r="D73">
         <v>22978.19593291171</v>
       </c>
       <c r="E73">
-        <v>4024.049380920325</v>
+        <v>4024.049380920345</v>
       </c>
       <c r="F73">
-        <v>3390.933177124585</v>
+        <v>3390.933177124602</v>
       </c>
       <c r="G73">
-        <v>5.908976261196037</v>
+        <v>5.908976261196053</v>
       </c>
       <c r="H73">
-        <v>37.24518614178353</v>
+        <v>37.24518614178356</v>
       </c>
       <c r="I73">
-        <v>1.35534828065054E-08</v>
+        <v>1.355348280650539E-08</v>
       </c>
       <c r="J73">
-        <v>8.96245741818827E-09</v>
+        <v>8.962457418188269E-09</v>
       </c>
       <c r="K73">
-        <v>6.426950614641053E-05</v>
+        <v>6.426950614641055E-05</v>
       </c>
       <c r="L73">
-        <v>0.07389735900220121</v>
+        <v>0.07389735900220122</v>
       </c>
       <c r="M73">
-        <v>533.7014843671661</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.07389645655261753</v>
+      </c>
+      <c r="N73">
+        <v>533.7014843671662</v>
+      </c>
+      <c r="O73">
+        <v>9.024495836933414E-07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>107.9780058280689</v>
       </c>
       <c r="B74">
-        <v>1280400.476431934</v>
+        <v>1280400.476431933</v>
       </c>
       <c r="C74">
         <v>1873.2146135552</v>
       </c>
       <c r="D74">
-        <v>22766.16622800312</v>
+        <v>22766.16622800313</v>
       </c>
       <c r="E74">
-        <v>3958.741769070686</v>
+        <v>3958.741769070685</v>
       </c>
       <c r="F74">
         <v>3331.452026782166</v>
       </c>
       <c r="G74">
-        <v>5.852367735276058</v>
+        <v>5.85236773527609</v>
       </c>
       <c r="H74">
-        <v>38.33546235447341</v>
+        <v>38.33546235447326</v>
       </c>
       <c r="I74">
-        <v>1.44484050080896E-08</v>
+        <v>1.444840500808955E-08</v>
       </c>
       <c r="J74">
-        <v>9.256408345086007E-09</v>
+        <v>9.256408345085994E-09</v>
       </c>
       <c r="K74">
-        <v>6.255614876817585E-05</v>
+        <v>6.255614876817594E-05</v>
       </c>
       <c r="L74">
-        <v>0.07254827301340137</v>
+        <v>0.07254827301340144</v>
       </c>
       <c r="M74">
+        <v>0.07254734952944926</v>
+      </c>
+      <c r="N74">
         <v>524.1155036276772</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="O74">
+        <v>9.23483952189757E-07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>108.9130091773936</v>
+        <v>108.9130091773935</v>
       </c>
       <c r="B75">
-        <v>1351745.098294503</v>
+        <v>1351745.098294502</v>
       </c>
       <c r="C75">
         <v>1985.49474290353</v>
       </c>
       <c r="D75">
-        <v>22549.53995472668</v>
+        <v>22549.5399547267</v>
       </c>
       <c r="E75">
-        <v>3891.201757077381</v>
+        <v>3891.20175707739</v>
       </c>
       <c r="F75">
-        <v>3270.337117559152</v>
+        <v>3270.33711755916</v>
       </c>
       <c r="G75">
-        <v>5.79651731550253</v>
+        <v>5.796517315502511</v>
       </c>
       <c r="H75">
-        <v>39.50183864010774</v>
+        <v>39.50183864010767</v>
       </c>
       <c r="I75">
-        <v>1.543431271365609E-08</v>
+        <v>1.5434312713656E-08</v>
       </c>
       <c r="J75">
-        <v>9.561129004227098E-09</v>
+        <v>9.561129004227065E-09</v>
       </c>
       <c r="K75">
-        <v>6.087573910933471E-05</v>
+        <v>6.087573910933485E-05</v>
       </c>
       <c r="L75">
-        <v>0.07119454622840402</v>
+        <v>0.07119454622840418</v>
       </c>
       <c r="M75">
-        <v>514.4563457625756</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.07119360137850531</v>
+      </c>
+      <c r="N75">
+        <v>514.4563457625768</v>
+      </c>
+      <c r="O75">
+        <v>9.448498988780699E-07</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>109.8480125267182</v>
       </c>
       <c r="B76">
-        <v>1425883.534547278</v>
+        <v>1425883.53454728</v>
       </c>
       <c r="C76">
-        <v>2104.090369414082</v>
+        <v>2104.090369414088</v>
       </c>
       <c r="D76">
-        <v>22328.08012745333</v>
+        <v>22328.08012745334</v>
       </c>
       <c r="E76">
-        <v>3821.299028896552</v>
+        <v>3821.299028896553</v>
       </c>
       <c r="F76">
-        <v>3207.487388629574</v>
+        <v>3207.487388629576</v>
       </c>
       <c r="G76">
-        <v>5.74158643615295</v>
+        <v>5.741586436152947</v>
       </c>
       <c r="H76">
-        <v>40.7522392083188</v>
+        <v>40.75223920831869</v>
       </c>
       <c r="I76">
-        <v>1.652369869180942E-08</v>
+        <v>1.652369869180933E-08</v>
       </c>
       <c r="J76">
-        <v>9.87739285583494E-09</v>
+        <v>9.877392855834929E-09</v>
       </c>
       <c r="K76">
-        <v>5.922654149086621E-05</v>
+        <v>5.92265414908663E-05</v>
       </c>
       <c r="L76">
-        <v>0.06983631237917458</v>
+        <v>0.06983631237917469</v>
       </c>
       <c r="M76">
-        <v>504.7226625931815</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.06983534581466638</v>
+      </c>
+      <c r="N76">
+        <v>504.7226625931822</v>
+      </c>
+      <c r="O76">
+        <v>9.665645083102279E-07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>110.7830158760428</v>
       </c>
       <c r="B77">
-        <v>1502884.513495496</v>
+        <v>1502884.513495507</v>
       </c>
       <c r="C77">
-        <v>2229.472109459222</v>
+        <v>2229.47210945925</v>
       </c>
       <c r="D77">
-        <v>22101.53452585241</v>
+        <v>22101.53452585242</v>
       </c>
       <c r="E77">
-        <v>3748.891788874934</v>
+        <v>3748.891788874931</v>
       </c>
       <c r="F77">
         <v>3142.792073573607</v>
       </c>
       <c r="G77">
-        <v>5.687752084052472</v>
+        <v>5.687752084052498</v>
       </c>
       <c r="H77">
-        <v>42.09592958009781</v>
+        <v>42.0959295800978</v>
       </c>
       <c r="I77">
-        <v>1.773129561236168E-08</v>
+        <v>1.773129561236161E-08</v>
       </c>
       <c r="J77">
-        <v>1.020604019036763E-08</v>
+        <v>1.02060401903676E-08</v>
       </c>
       <c r="K77">
-        <v>5.760686609636211E-05</v>
+        <v>5.760686609636221E-05</v>
       </c>
       <c r="L77">
-        <v>0.06847401162021823</v>
+        <v>0.06847401162021832</v>
       </c>
       <c r="M77">
-        <v>494.912983343054</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.06847302297521222</v>
+      </c>
+      <c r="N77">
+        <v>494.9129833430546</v>
+      </c>
+      <c r="O77">
+        <v>9.886450061003026E-07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>111.7180192253675</v>
+        <v>111.7180192253674</v>
       </c>
       <c r="B78">
-        <v>1582818.902390769</v>
+        <v>1582818.902390758</v>
       </c>
       <c r="C78">
-        <v>2362.164951025741</v>
+        <v>2362.164951025718</v>
       </c>
       <c r="D78">
-        <v>21869.6336382426</v>
+        <v>21869.63363824261</v>
       </c>
       <c r="E78">
-        <v>3673.825816706648</v>
+        <v>3673.82581670666</v>
       </c>
       <c r="F78">
-        <v>3076.129723012657</v>
+        <v>3076.129723012666</v>
       </c>
       <c r="G78">
-        <v>5.635207841674234</v>
+        <v>5.635207841674227</v>
       </c>
       <c r="H78">
-        <v>43.54381619116823</v>
+        <v>43.5438161911683</v>
       </c>
       <c r="I78">
-        <v>1.907458974411167E-08</v>
+        <v>1.907458974411165E-08</v>
       </c>
       <c r="J78">
-        <v>1.054798574880283E-08</v>
+        <v>1.054798574880281E-08</v>
       </c>
       <c r="K78">
-        <v>5.601507165118452E-05</v>
+        <v>5.601507165118456E-05</v>
       </c>
       <c r="L78">
-        <v>0.06710837831338472</v>
+        <v>0.06710837831338476</v>
       </c>
       <c r="M78">
-        <v>485.0256630592297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.06710736720472944</v>
+      </c>
+      <c r="N78">
+        <v>485.0256630592301</v>
+      </c>
+      <c r="O78">
+        <v>1.011108655321907E-06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>112.6530225746921</v>
       </c>
       <c r="B79">
-        <v>1665759.896227979</v>
+        <v>1665759.896227972</v>
       </c>
       <c r="C79">
-        <v>2502.755087378305</v>
+        <v>2502.755087378292</v>
       </c>
       <c r="D79">
-        <v>21632.08814397113</v>
+        <v>21632.08814397114</v>
       </c>
       <c r="E79">
-        <v>3595.933562296305</v>
+        <v>3595.933562296306</v>
       </c>
       <c r="F79">
         <v>3007.367205036542</v>
       </c>
       <c r="G79">
-        <v>5.584165094856834</v>
+        <v>5.584165094856848</v>
       </c>
       <c r="H79">
-        <v>45.10883029182675</v>
+        <v>45.10883029182664</v>
       </c>
       <c r="I79">
-        <v>2.057448160732124E-08</v>
+        <v>2.057448160732119E-08</v>
       </c>
       <c r="J79">
-        <v>1.090422792614277E-08</v>
+        <v>1.090422792614276E-08</v>
       </c>
       <c r="K79">
         <v>5.444956869354351E-05</v>
       </c>
       <c r="L79">
-        <v>0.06574042259761599</v>
+        <v>0.06574042259761602</v>
       </c>
       <c r="M79">
-        <v>475.0588247904508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.06573938862495624</v>
+      </c>
+      <c r="N79">
+        <v>475.058824790451</v>
+      </c>
+      <c r="O79">
+        <v>1.033972659781107E-06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>113.5880259240167</v>
       </c>
       <c r="B80">
-        <v>1751783.175583623</v>
+        <v>1751783.175583622</v>
       </c>
       <c r="C80">
-        <v>2651.897205273297</v>
+        <v>2651.897205273295</v>
       </c>
       <c r="D80">
-        <v>21388.58579558527</v>
+        <v>21388.5857955853</v>
       </c>
       <c r="E80">
-        <v>3515.033342818905</v>
+        <v>3515.033342818907</v>
       </c>
       <c r="F80">
-        <v>2936.358724386034</v>
+        <v>2936.358724386037</v>
       </c>
       <c r="G80">
-        <v>5.534854426742657</v>
+        <v>5.534854426742672</v>
       </c>
       <c r="H80">
-        <v>46.80642411004151</v>
+        <v>46.80642411004121</v>
       </c>
       <c r="I80">
-        <v>2.225614456662422E-08</v>
+        <v>2.225614456662397E-08</v>
       </c>
       <c r="J80">
-        <v>1.127585999291447E-08</v>
+        <v>1.127585999291444E-08</v>
       </c>
       <c r="K80">
-        <v>5.290882275844938E-05</v>
+        <v>5.290882275844953E-05</v>
       </c>
       <c r="L80">
-        <v>0.06437140482920838</v>
+        <v>0.0643714048292085</v>
       </c>
       <c r="M80">
-        <v>465.0102948075672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.06437034757512948</v>
+      </c>
+      <c r="N80">
+        <v>465.0102948075685</v>
+      </c>
+      <c r="O80">
+        <v>1.057254079023144E-06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>114.5230292733414</v>
+        <v>114.5230292733413</v>
       </c>
       <c r="B81">
-        <v>1840967.008115987</v>
+        <v>1840967.008115984</v>
       </c>
       <c r="C81">
-        <v>2810.322008830994</v>
+        <v>2810.322008830989</v>
       </c>
       <c r="D81">
-        <v>21138.78751397537</v>
+        <v>21138.7875139754</v>
       </c>
       <c r="E81">
-        <v>3430.928730603135</v>
+        <v>3430.928730603137</v>
       </c>
       <c r="F81">
-        <v>2862.944923642508</v>
+        <v>2862.944923642512</v>
       </c>
       <c r="G81">
-        <v>5.487527231820605</v>
+        <v>5.487527231820616</v>
       </c>
       <c r="H81">
-        <v>48.6552182319604</v>
+        <v>48.65521823196029</v>
       </c>
       <c r="I81">
-        <v>2.415015336379812E-08</v>
+        <v>2.415015336379793E-08</v>
       </c>
       <c r="J81">
-        <v>1.166408391585611E-08</v>
+        <v>1.166408391585608E-08</v>
       </c>
       <c r="K81">
-        <v>5.139135665370604E-05</v>
+        <v>5.139135665370616E-05</v>
       </c>
       <c r="L81">
-        <v>0.06300280210595206</v>
+        <v>0.06300280210595219</v>
       </c>
       <c r="M81">
-        <v>454.8775298663683</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.06300172113619047</v>
+      </c>
+      <c r="N81">
+        <v>454.8775298663693</v>
+      </c>
+      <c r="O81">
+        <v>1.080969761717816E-06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>115.458032622666</v>
+        <v>115.4580326226659</v>
       </c>
       <c r="B82">
-        <v>1933392.257938757</v>
+        <v>1933392.257938748</v>
       </c>
       <c r="C82">
-        <v>2978.843605861937</v>
+        <v>2978.843605861916</v>
       </c>
       <c r="D82">
-        <v>20882.32244297432</v>
+        <v>20882.32244297434</v>
       </c>
       <c r="E82">
-        <v>3343.408251363848</v>
+        <v>3343.408251363854</v>
       </c>
       <c r="F82">
-        <v>2786.952158086046</v>
+        <v>2786.952158086051</v>
       </c>
       <c r="G82">
-        <v>5.442457601908884</v>
+        <v>5.442457601908886</v>
       </c>
       <c r="H82">
-        <v>50.67785528686576</v>
+        <v>50.67785528686566</v>
       </c>
       <c r="I82">
-        <v>2.629398578999108E-08</v>
+        <v>2.629398578999093E-08</v>
       </c>
       <c r="J82">
-        <v>1.207022756385769E-08</v>
+        <v>1.207022756385766E-08</v>
       </c>
       <c r="K82">
-        <v>4.989575082378662E-05</v>
+        <v>4.989575082378673E-05</v>
       </c>
       <c r="L82">
-        <v>0.06163626624360655</v>
+        <v>0.06163626624360666</v>
       </c>
       <c r="M82">
-        <v>444.6575349899524</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06163516110730017</v>
+      </c>
+      <c r="N82">
+        <v>444.6575349899533</v>
+      </c>
+      <c r="O82">
+        <v>1.105136306487159E-06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>116.3930359719906</v>
       </c>
       <c r="B83">
-        <v>2029142.253615167</v>
+        <v>2029142.253615153</v>
       </c>
       <c r="C83">
-        <v>3158.366176365678</v>
+        <v>3158.366176365641</v>
       </c>
       <c r="D83">
         <v>20618.78161491203</v>
       </c>
       <c r="E83">
-        <v>3252.245542973695</v>
+        <v>3252.245542973707</v>
       </c>
       <c r="F83">
-        <v>2708.192068309608</v>
+        <v>2708.192068309617</v>
       </c>
       <c r="G83">
-        <v>5.399944562635199</v>
+        <v>5.399944562635207</v>
       </c>
       <c r="H83">
-        <v>52.90213916715057</v>
+        <v>52.90213916715058</v>
       </c>
       <c r="I83">
-        <v>2.873404786714684E-08</v>
+        <v>2.873404786714683E-08</v>
       </c>
       <c r="J83">
         <v>1.24957663763467E-08</v>
       </c>
       <c r="K83">
-        <v>4.842064055754132E-05</v>
+        <v>4.842064055754134E-05</v>
       </c>
       <c r="L83">
-        <v>0.06027357271822994</v>
+        <v>0.06027357271822995</v>
       </c>
       <c r="M83">
+        <v>0.06027244294816746</v>
+      </c>
+      <c r="N83">
         <v>434.3467693314831</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="O83">
+        <v>1.129770062493009E-06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>117.3280393213152</v>
       </c>
       <c r="B84">
-        <v>2128302.448876965</v>
+        <v>2128302.44887698</v>
       </c>
       <c r="C84">
-        <v>3349.889090938786</v>
+        <v>3349.889090938836</v>
       </c>
       <c r="D84">
-        <v>20347.70974111097</v>
+        <v>20347.70974111099</v>
       </c>
       <c r="E84">
-        <v>3157.200143431339</v>
+        <v>3157.200143431335</v>
       </c>
       <c r="F84">
-        <v>2626.461604018648</v>
+        <v>2626.461604018651</v>
       </c>
       <c r="G84">
-        <v>5.360314779389613</v>
+        <v>5.360314779389599</v>
       </c>
       <c r="H84">
-        <v>55.3625759027637</v>
+        <v>55.36257590276311</v>
       </c>
       <c r="I84">
-        <v>3.152844566112355E-08</v>
+        <v>3.152844566112315E-08</v>
       </c>
       <c r="J84">
-        <v>1.294235099197035E-08</v>
+        <v>1.294235099197033E-08</v>
       </c>
       <c r="K84">
-        <v>4.696470847635022E-05</v>
+        <v>4.69647084763503E-05</v>
       </c>
       <c r="L84">
-        <v>0.05891656017202954</v>
+        <v>0.05891656017202961</v>
       </c>
       <c r="M84">
-        <v>423.9410361340205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.05891540528484276</v>
+      </c>
+      <c r="N84">
+        <v>423.9410361340217</v>
+      </c>
+      <c r="O84">
+        <v>1.154887186849919E-06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>118.2630426706399</v>
+        <v>118.2630426706398</v>
       </c>
       <c r="B85">
-        <v>2230959.791059942</v>
+        <v>2230959.791059894</v>
       </c>
       <c r="C85">
-        <v>3554.509391113866</v>
+        <v>3554.509391113719</v>
       </c>
       <c r="D85">
-        <v>20068.59443903242</v>
+        <v>20068.59443903241</v>
       </c>
       <c r="E85">
-        <v>3058.019057945838</v>
+        <v>3058.019057945872</v>
       </c>
       <c r="F85">
-        <v>2541.543661834957</v>
+        <v>2541.543661834976</v>
       </c>
       <c r="G85">
-        <v>5.323925913444659</v>
+        <v>5.323925913444671</v>
       </c>
       <c r="H85">
-        <v>58.10248995796756</v>
+        <v>58.10248995796801</v>
       </c>
       <c r="I85">
-        <v>3.475084156292482E-08</v>
+        <v>3.475084156292514E-08</v>
       </c>
       <c r="J85">
-        <v>1.341184295412524E-08</v>
+        <v>1.341184295412526E-08</v>
       </c>
       <c r="K85">
-        <v>4.552667030545625E-05</v>
+        <v>4.552667030545621E-05</v>
       </c>
       <c r="L85">
-        <v>0.05756706003592027</v>
+        <v>0.05756706003592023</v>
       </c>
       <c r="M85">
-        <v>413.4353502897303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.05756587953213777</v>
+      </c>
+      <c r="N85">
+        <v>413.4353502897293</v>
+      </c>
+      <c r="O85">
+        <v>1.180503782459572E-06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>119.1980460199645</v>
       </c>
       <c r="B86">
-        <v>2337201.692978733</v>
+        <v>2337201.69297873</v>
       </c>
       <c r="C86">
-        <v>3773.4203924383</v>
+        <v>3773.420392438296</v>
       </c>
       <c r="D86">
-        <v>19780.85190562357</v>
+        <v>19780.85190562361</v>
       </c>
       <c r="E86">
-        <v>2954.439152592914</v>
+        <v>2954.439152592924</v>
       </c>
       <c r="F86">
-        <v>2453.208455331389</v>
+        <v>2453.208455331401</v>
       </c>
       <c r="G86">
-        <v>5.291170904034435</v>
+        <v>5.291170904034423</v>
       </c>
       <c r="H86">
-        <v>61.17698205361086</v>
+        <v>61.17698205361035</v>
       </c>
       <c r="I86">
-        <v>3.849591822634293E-08</v>
+        <v>3.849591822634229E-08</v>
       </c>
       <c r="J86">
-        <v>1.390636153679651E-08</v>
+        <v>1.390636153679645E-08</v>
       </c>
       <c r="K86">
-        <v>4.410525132816973E-05</v>
+        <v>4.410525132816992E-05</v>
       </c>
       <c r="L86">
-        <v>0.05622681555919756</v>
+        <v>0.05622681555919772</v>
       </c>
       <c r="M86">
-        <v>402.8237730263053</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.0562256089230482</v>
+      </c>
+      <c r="N86">
+        <v>402.8237730263072</v>
+      </c>
+      <c r="O86">
+        <v>1.206636149517093E-06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>120.1330493692891</v>
       </c>
       <c r="B87">
-        <v>2447114.489655063</v>
+        <v>2447114.489655073</v>
       </c>
       <c r="C87">
-        <v>4007.905350997853</v>
+        <v>4007.905350997898</v>
       </c>
       <c r="D87">
-        <v>19483.80758823811</v>
+        <v>19483.80758823812</v>
       </c>
       <c r="E87">
-        <v>2846.190157813979</v>
+        <v>2846.190157813972</v>
       </c>
       <c r="F87">
-        <v>2361.215576030908</v>
+        <v>2361.215576030904</v>
       </c>
       <c r="G87">
-        <v>5.262483599692075</v>
+        <v>5.262483599692086</v>
       </c>
       <c r="H87">
-        <v>64.65714655471957</v>
+        <v>64.65714655471969</v>
       </c>
       <c r="I87">
-        <v>4.28872810744327E-08</v>
+        <v>4.288728107443275E-08</v>
       </c>
       <c r="J87">
-        <v>1.442834614954042E-08</v>
+        <v>1.44283461495404E-08</v>
       </c>
       <c r="K87">
-        <v>4.269915006454686E-05</v>
+        <v>4.269915006454689E-05</v>
       </c>
       <c r="L87">
-        <v>0.05489738893523856</v>
+        <v>0.0548973889352386</v>
       </c>
       <c r="M87">
-        <v>392.0991971328301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.05489615563404058</v>
+      </c>
+      <c r="N87">
+        <v>392.0991971328298</v>
+      </c>
+      <c r="O87">
+        <v>1.233301198022496E-06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>121.0680527186138</v>
+        <v>121.0680527186137</v>
       </c>
       <c r="B88">
-        <v>2560781.261236508</v>
+        <v>2560781.261236489</v>
       </c>
       <c r="C88">
-        <v>4259.326051643526</v>
+        <v>4259.32605164347</v>
       </c>
       <c r="D88">
         <v>19176.66969875358</v>
       </c>
       <c r="E88">
-        <v>2732.997522977474</v>
+        <v>2732.997522977488</v>
       </c>
       <c r="F88">
-        <v>2265.316332887825</v>
+        <v>2265.316332887835</v>
       </c>
       <c r="G88">
-        <v>5.238346392250714</v>
+        <v>5.238346392250724</v>
       </c>
       <c r="H88">
-        <v>68.63622403434724</v>
+        <v>68.63622403434755</v>
       </c>
       <c r="I88">
-        <v>4.80891568674316E-08</v>
+        <v>4.808915686743195E-08</v>
       </c>
       <c r="J88">
-        <v>1.49806409855516E-08</v>
+        <v>1.498064098555161E-08</v>
       </c>
       <c r="K88">
-        <v>4.130698446418482E-05</v>
+        <v>4.13069844641848E-05</v>
       </c>
       <c r="L88">
-        <v>0.05358005410202001</v>
+        <v>0.05358005410201997</v>
       </c>
       <c r="M88">
-        <v>381.2530569399346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05357879358493046</v>
+      </c>
+      <c r="N88">
+        <v>381.2530569399337</v>
+      </c>
+      <c r="O88">
+        <v>1.260517089507597E-06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>122.0030560679384</v>
+        <v>122.0030560679383</v>
       </c>
       <c r="B89">
-        <v>2678278.931673607</v>
+        <v>2678278.93167357</v>
       </c>
       <c r="C89">
-        <v>4529.108458226048</v>
+        <v>4529.108458225903</v>
       </c>
       <c r="D89">
-        <v>18858.49230854901</v>
+        <v>18858.49230854896</v>
       </c>
       <c r="E89">
-        <v>2614.583396220114</v>
+        <v>2614.583396220148</v>
       </c>
       <c r="F89">
-        <v>2165.255241922573</v>
+        <v>2165.255241922591</v>
       </c>
       <c r="G89">
-        <v>5.219300868648402</v>
+        <v>5.219300868648432</v>
       </c>
       <c r="H89">
-        <v>73.23881606594988</v>
+        <v>73.23881606595218</v>
       </c>
       <c r="I89">
-        <v>5.432417805405652E-08</v>
+        <v>5.432417805405874E-08</v>
       </c>
       <c r="J89">
-        <v>1.556661209022537E-08</v>
+        <v>1.556661209022543E-08</v>
       </c>
       <c r="K89">
-        <v>3.992721401894799E-05</v>
+        <v>3.992721401894778E-05</v>
       </c>
       <c r="L89">
-        <v>0.05227567091426554</v>
+        <v>0.05227567091426535</v>
       </c>
       <c r="M89">
-        <v>370.2749236172834</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.0522743826100577</v>
+      </c>
+      <c r="N89">
+        <v>370.2749236172803</v>
+      </c>
+      <c r="O89">
+        <v>1.288304207656552E-06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>122.938059417263</v>
       </c>
@@ -4163,7 +4703,7 @@
         <v>2799674.627455211</v>
       </c>
       <c r="C90">
-        <v>4818.732016571628</v>
+        <v>4818.732016571625</v>
       </c>
       <c r="D90">
         <v>18528.12298105675</v>
@@ -4175,476 +4715,548 @@
         <v>2060.768329508286</v>
       </c>
       <c r="G90">
-        <v>5.20596307052019</v>
+        <v>5.205963070520171</v>
       </c>
       <c r="H90">
         <v>78.63511090173436</v>
       </c>
       <c r="I90">
-        <v>6.190125772080681E-08</v>
+        <v>6.190125772080688E-08</v>
       </c>
       <c r="J90">
         <v>1.61903127722793E-08</v>
       </c>
       <c r="K90">
-        <v>3.855802826160254E-05</v>
+        <v>3.855802826160255E-05</v>
       </c>
       <c r="L90">
         <v>0.05098453328834118</v>
       </c>
       <c r="M90">
+        <v>0.05098321660173535</v>
+      </c>
+      <c r="N90">
         <v>359.1519261504992</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="O90">
+        <v>1.316686605834273E-06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>123.8730627665876</v>
       </c>
       <c r="B91">
-        <v>2925021.415695325</v>
+        <v>2925021.415695323</v>
       </c>
       <c r="C91">
-        <v>5129.736584863143</v>
+        <v>5129.736584863153</v>
       </c>
       <c r="D91">
-        <v>18184.1269314247</v>
+        <v>18184.12693142474</v>
       </c>
       <c r="E91">
-        <v>2360.927240161938</v>
+        <v>2360.927240161941</v>
       </c>
       <c r="F91">
-        <v>1951.574100093478</v>
+        <v>1951.574100093481</v>
       </c>
       <c r="G91">
-        <v>5.199045886444498</v>
+        <v>5.199045886444474</v>
       </c>
       <c r="H91">
-        <v>85.06363048046802</v>
+        <v>85.06363048046741</v>
       </c>
       <c r="I91">
-        <v>7.126085806508043E-08</v>
+        <v>7.126085806507927E-08</v>
       </c>
       <c r="J91">
-        <v>1.68567229933081E-08</v>
+        <v>1.685672299330803E-08</v>
       </c>
       <c r="K91">
-        <v>3.719718725727938E-05</v>
+        <v>3.719718725727954E-05</v>
       </c>
       <c r="L91">
-        <v>0.04970617875083276</v>
+        <v>0.04970617875083291</v>
       </c>
       <c r="M91">
-        <v>347.8679073264856</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.04970483305667578</v>
+      </c>
+      <c r="N91">
+        <v>347.8679073264872</v>
+      </c>
+      <c r="O91">
+        <v>1.345694157126384E-06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>124.8080661159123</v>
+        <v>124.8080661159122</v>
       </c>
       <c r="B92">
-        <v>3054353.736667881</v>
+        <v>3054353.736667948</v>
       </c>
       <c r="C92">
-        <v>5463.771712423209</v>
+        <v>5463.771712423559</v>
       </c>
       <c r="D92">
-        <v>17824.67453253066</v>
+        <v>17824.67453253077</v>
       </c>
       <c r="E92">
-        <v>2225.014474232452</v>
+        <v>2225.014474232381</v>
       </c>
       <c r="F92">
-        <v>1837.350564862417</v>
+        <v>1837.350564862372</v>
       </c>
       <c r="G92">
-        <v>5.199392677087127</v>
+        <v>5.19939267708708</v>
       </c>
       <c r="H92">
-        <v>92.86913255455617</v>
+        <v>92.86913255455134</v>
       </c>
       <c r="I92">
-        <v>8.305163251370023E-08</v>
+        <v>8.305163251369413E-08</v>
       </c>
       <c r="J92">
-        <v>1.757210548906839E-08</v>
+        <v>1.75721054890682E-08</v>
       </c>
       <c r="K92">
-        <v>3.584179115455641E-05</v>
+        <v>3.584179115455683E-05</v>
       </c>
       <c r="L92">
-        <v>0.0484391378735588</v>
+        <v>0.04843913787355917</v>
       </c>
       <c r="M92">
-        <v>336.4021733895715</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.0484377625077952</v>
+      </c>
+      <c r="N92">
+        <v>336.4021733895765</v>
+      </c>
+      <c r="O92">
+        <v>1.375365763962491E-06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>125.7430694652369</v>
       </c>
       <c r="B93">
-        <v>3187683.066771084</v>
+        <v>3187683.06677107</v>
       </c>
       <c r="C93">
-        <v>5822.72724633681</v>
+        <v>5822.727246336745</v>
       </c>
       <c r="D93">
-        <v>17447.36942543677</v>
+        <v>17447.36942543675</v>
       </c>
       <c r="E93">
-        <v>2082.441096837906</v>
+        <v>2082.441096837928</v>
       </c>
       <c r="F93">
-        <v>1717.688556419636</v>
+        <v>1717.688556419652</v>
       </c>
       <c r="G93">
-        <v>5.208029042471122</v>
+        <v>5.20802904247111</v>
       </c>
       <c r="H93">
-        <v>102.5689370649791</v>
+        <v>102.5689370649802</v>
       </c>
       <c r="I93">
-        <v>9.826679030175436E-08</v>
+        <v>9.826679030175577E-08</v>
       </c>
       <c r="J93">
-        <v>1.834455318382556E-08</v>
+        <v>1.834455318382559E-08</v>
       </c>
       <c r="K93">
-        <v>3.448793969145525E-05</v>
+        <v>3.448793969145521E-05</v>
       </c>
       <c r="L93">
-        <v>0.04718058565662558</v>
+        <v>0.04718058565662554</v>
       </c>
       <c r="M93">
-        <v>324.7276042300102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.04717917990239934</v>
+      </c>
+      <c r="N93">
+        <v>324.7276042300094</v>
+      </c>
+      <c r="O93">
+        <v>1.405754226194484E-06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>126.6780728145615</v>
       </c>
       <c r="B94">
-        <v>3324994.518138985</v>
+        <v>3324994.518138975</v>
       </c>
       <c r="C94">
-        <v>6209.003717595889</v>
+        <v>6209.00371759584</v>
       </c>
       <c r="D94">
-        <v>17048.97556305711</v>
+        <v>17048.97556305717</v>
       </c>
       <c r="E94">
-        <v>1932.492650836107</v>
+        <v>1932.492650836138</v>
       </c>
       <c r="F94">
-        <v>1592.006948548686</v>
+        <v>1592.006948548714</v>
       </c>
       <c r="G94">
-        <v>5.226245024163019</v>
+        <v>5.226245024162998</v>
       </c>
       <c r="H94">
-        <v>114.9761082387483</v>
+        <v>114.9761082387461</v>
       </c>
       <c r="I94">
-        <v>1.185018104390484E-07</v>
+        <v>1.185018104390446E-07</v>
       </c>
       <c r="J94">
-        <v>1.918486546211787E-08</v>
+        <v>1.918486546211775E-08</v>
       </c>
       <c r="K94">
-        <v>3.313020971263363E-05</v>
+        <v>3.313020971263386E-05</v>
       </c>
       <c r="L94">
-        <v>0.04592582482934977</v>
+        <v>0.04592582482934993</v>
       </c>
       <c r="M94">
-        <v>312.8077067097896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.04592438789550143</v>
+      </c>
+      <c r="N94">
+        <v>312.8077067097918</v>
+      </c>
+      <c r="O94">
+        <v>1.436933848502955E-06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>127.6130761638862</v>
+        <v>127.6130761638861</v>
       </c>
       <c r="B95">
-        <v>3466245.099137135</v>
+        <v>3466245.099137246</v>
       </c>
       <c r="C95">
-        <v>6626.015021644019</v>
+        <v>6626.015021644784</v>
       </c>
       <c r="D95">
-        <v>16624.96100087834</v>
+        <v>16624.96100087862</v>
       </c>
       <c r="E95">
-        <v>1774.036527365343</v>
+        <v>1774.036527365214</v>
       </c>
       <c r="F95">
-        <v>1459.406303515891</v>
+        <v>1459.406303515809</v>
       </c>
       <c r="G95">
-        <v>5.255731268138589</v>
+        <v>5.255731268138472</v>
       </c>
       <c r="H95">
-        <v>131.4458242913113</v>
+        <v>131.4458242912897</v>
       </c>
       <c r="I95">
-        <v>1.464795005924601E-07</v>
+        <v>1.464795005924278E-07</v>
       </c>
       <c r="J95">
-        <v>2.010802556450888E-08</v>
+        <v>2.010802556450835E-08</v>
       </c>
       <c r="K95">
-        <v>3.176080714075352E-05</v>
+        <v>3.176080714075445E-05</v>
       </c>
       <c r="L95">
-        <v>0.04466746373484965</v>
+        <v>0.0446674637348504</v>
       </c>
       <c r="M95">
-        <v>300.5917885018492</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.04466599472193714</v>
+      </c>
+      <c r="N95">
+        <v>300.5917885018604</v>
+      </c>
+      <c r="O95">
+        <v>1.469012913257919E-06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>128.5480795132108</v>
       </c>
       <c r="B96">
-        <v>3611364.154459974</v>
+        <v>3611364.154459997</v>
       </c>
       <c r="C96">
-        <v>7079.097878836345</v>
+        <v>7079.097878836551</v>
       </c>
       <c r="D96">
-        <v>16168.68121927682</v>
+        <v>16168.68121927688</v>
       </c>
       <c r="E96">
-        <v>1605.203342279733</v>
+        <v>1605.203342279709</v>
       </c>
       <c r="F96">
-        <v>1318.414174800542</v>
+        <v>1318.41417480053</v>
       </c>
       <c r="G96">
-        <v>5.298818488496023</v>
+        <v>5.298818488496</v>
       </c>
       <c r="H96">
-        <v>154.4173842133119</v>
+        <v>154.417384213306</v>
       </c>
       <c r="I96">
-        <v>1.872282150734938E-07</v>
+        <v>1.872282150734841E-07</v>
       </c>
       <c r="J96">
-        <v>2.113586735810756E-08</v>
+        <v>2.113586735810743E-08</v>
       </c>
       <c r="K96">
-        <v>3.036808030941741E-05</v>
+        <v>3.036808030941759E-05</v>
       </c>
       <c r="L96">
-        <v>0.04339399770118991</v>
+        <v>0.04339399770119006</v>
       </c>
       <c r="M96">
-        <v>288.0064588842165</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.04339249554556882</v>
+      </c>
+      <c r="N96">
+        <v>288.0064588842188</v>
+      </c>
+      <c r="O96">
+        <v>1.502155621239794E-06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>129.4830828625354</v>
       </c>
       <c r="B97">
-        <v>3760256.097089457</v>
+        <v>3760256.097089411</v>
       </c>
       <c r="C97">
-        <v>7577.238389045985</v>
+        <v>7577.238389045589</v>
       </c>
       <c r="D97">
-        <v>15669.77432640869</v>
+        <v>15669.77432640851</v>
       </c>
       <c r="E97">
-        <v>1422.796225856379</v>
+        <v>1422.796225856433</v>
       </c>
       <c r="F97">
-        <v>1166.508169164602</v>
+        <v>1166.508169164636</v>
       </c>
       <c r="G97">
-        <v>5.358936289494996</v>
+        <v>5.358936289495064</v>
       </c>
       <c r="H97">
-        <v>188.7691837208731</v>
+        <v>188.7691837208966</v>
       </c>
       <c r="I97">
-        <v>2.510913661354689E-07</v>
+        <v>2.510913661355095E-07</v>
       </c>
       <c r="J97">
-        <v>2.230235420345649E-08</v>
+        <v>2.230235420345685E-08</v>
       </c>
       <c r="K97">
-        <v>2.893363352671005E-05</v>
+        <v>2.893363352670951E-05</v>
       </c>
       <c r="L97">
-        <v>0.0420871084849229</v>
+        <v>0.04208710848492249</v>
       </c>
       <c r="M97">
-        <v>274.9390765692762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04208557186026066</v>
+      </c>
+      <c r="N97">
+        <v>274.93907656927</v>
+      </c>
+      <c r="O97">
+        <v>1.536624661833145E-06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>130.41808621186</v>
       </c>
       <c r="B98">
-        <v>3912805.070185192</v>
+        <v>3912805.070185145</v>
       </c>
       <c r="C98">
-        <v>8136.792083756097</v>
+        <v>8136.792083755658</v>
       </c>
       <c r="D98">
-        <v>15110.56558005764</v>
+        <v>15110.56558005748</v>
       </c>
       <c r="E98">
-        <v>1221.020224911486</v>
+        <v>1221.020224911559</v>
       </c>
       <c r="F98">
-        <v>999.0871086054625</v>
+        <v>999.0871086055133</v>
       </c>
       <c r="G98">
-        <v>5.441609473963314</v>
+        <v>5.441609473963402</v>
       </c>
       <c r="H98">
-        <v>245.8834731428309</v>
+        <v>245.8834731428673</v>
       </c>
       <c r="I98">
-        <v>3.629742285615867E-07</v>
+        <v>3.629742285616524E-07</v>
       </c>
       <c r="J98">
-        <v>2.366548371613932E-08</v>
+        <v>2.366548371613965E-08</v>
       </c>
       <c r="K98">
-        <v>2.742589262158713E-05</v>
+        <v>2.742589262158669E-05</v>
       </c>
       <c r="L98">
-        <v>0.04071580434912492</v>
+        <v>0.04071580434912461</v>
       </c>
       <c r="M98">
-        <v>261.200724906799</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.04071423147321285</v>
+      </c>
+      <c r="N98">
+        <v>261.2007249067935</v>
+      </c>
+      <c r="O98">
+        <v>1.572875911767089E-06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>131.3530895611847</v>
+        <v>131.3530895611846</v>
       </c>
       <c r="B99">
-        <v>4068880.815821787</v>
+        <v>4068880.815821892</v>
       </c>
       <c r="C99">
-        <v>8791.42603560251</v>
+        <v>8791.426035604271</v>
       </c>
       <c r="D99">
-        <v>14456.22793028982</v>
+        <v>14456.22793029068</v>
       </c>
       <c r="E99">
-        <v>988.0667261744654</v>
+        <v>988.0667261742534</v>
       </c>
       <c r="F99">
-        <v>806.705108132289</v>
+        <v>806.7051081321464</v>
       </c>
       <c r="G99">
-        <v>5.557086254394461</v>
+        <v>5.557086254394116</v>
       </c>
       <c r="H99">
-        <v>359.903607752506</v>
+        <v>359.9036077521894</v>
       </c>
       <c r="I99">
-        <v>6.003706751038625E-07</v>
+        <v>6.00370675103231E-07</v>
       </c>
       <c r="J99">
-        <v>2.534007611851836E-08</v>
+        <v>2.534007611851623E-08</v>
       </c>
       <c r="K99">
-        <v>2.578250931504213E-05</v>
+        <v>2.578250931504431E-05</v>
       </c>
       <c r="L99">
-        <v>0.0392209073045903</v>
+        <v>0.03922090730459198</v>
       </c>
       <c r="M99">
-        <v>246.4245326304215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.0392192954876437</v>
+      </c>
+      <c r="N99">
+        <v>246.424532630445</v>
+      </c>
+      <c r="O99">
+        <v>1.611816948288538E-06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>132.2880929105093</v>
+        <v>132.2880929105092</v>
       </c>
       <c r="B100">
-        <v>4228344.898975221</v>
+        <v>4228344.898975372</v>
       </c>
       <c r="C100">
-        <v>9630.859008806634</v>
+        <v>9630.859008811231</v>
       </c>
       <c r="D100">
-        <v>13616.10780922487</v>
+        <v>13616.10780922819</v>
       </c>
       <c r="E100">
-        <v>692.7410237552997</v>
+        <v>692.7410237549769</v>
       </c>
       <c r="F100">
-        <v>564.2396300329781</v>
+        <v>564.2396300327861</v>
       </c>
       <c r="G100">
-        <v>5.730224828263574</v>
+        <v>5.730224828262369</v>
       </c>
       <c r="H100">
-        <v>701.4760369043189</v>
+        <v>701.4760369008235</v>
       </c>
       <c r="I100">
-        <v>1.369211408572788E-06</v>
+        <v>1.369211408565078E-06</v>
       </c>
       <c r="J100">
-        <v>2.76275855851599E-08</v>
+        <v>2.762758558515105E-08</v>
       </c>
       <c r="K100">
-        <v>2.384109458283675E-05</v>
+        <v>2.384109458284429E-05</v>
       </c>
       <c r="L100">
-        <v>0.03745587282517493</v>
+        <v>0.03745587282518079</v>
       </c>
       <c r="M100">
-        <v>229.6633656698014</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.03745421700107748</v>
+      </c>
+      <c r="N100">
+        <v>229.663365669876</v>
+      </c>
+      <c r="O100">
+        <v>1.655824103312767E-06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>133.2230962598339</v>
       </c>
       <c r="B101">
-        <v>4391055.635393028</v>
+        <v>4391055.634548108</v>
       </c>
       <c r="C101">
-        <v>11663.22915545304</v>
+        <v>11663.50809286349</v>
       </c>
       <c r="D101">
-        <v>11667.69747387897</v>
+        <v>11667.42746082533</v>
       </c>
       <c r="E101">
-        <v>0.7731287527965558</v>
+        <v>0.6781467365798981</v>
       </c>
       <c r="F101">
-        <v>0.628947403448626</v>
+        <v>0.5516787299782023</v>
       </c>
       <c r="G101">
-        <v>6.182820927743691</v>
+        <v>6.18288321859366</v>
       </c>
       <c r="H101">
-        <v>9162345.823075011</v>
+        <v>10466406.64937716</v>
       </c>
       <c r="I101">
-        <v>0.02567358543882254</v>
+        <v>0.02932911762835136</v>
       </c>
       <c r="J101">
-        <v>3.365800177644107E-08</v>
+        <v>3.365892157573331E-08</v>
       </c>
       <c r="K101">
-        <v>1.994228519159068E-05</v>
+        <v>1.994179550026838E-05</v>
       </c>
       <c r="L101">
-        <v>0.03400951146600194</v>
+        <v>0.03400909748581697</v>
       </c>
       <c r="M101">
-        <v>201.1930305468236</v>
+        <v>0.03400736818460643</v>
+      </c>
+      <c r="N101">
+        <v>201.1900951232415</v>
+      </c>
+      <c r="O101">
+        <v>1.729301210536828E-06</v>
       </c>
     </row>
   </sheetData>
